--- a/testdata/data.xlsx
+++ b/testdata/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="4356"/>
+    <workbookView windowWidth="23040" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>username</t>
   </si>
@@ -38,10 +38,16 @@
     <t>isMock</t>
   </si>
   <si>
+    <t>personal_account_iban</t>
+  </si>
+  <si>
     <t>Osir ANOEV</t>
   </si>
   <si>
     <t>ART02</t>
+  </si>
+  <si>
+    <t>205-9031004417882-84</t>
   </si>
 </sst>
 </file>
@@ -983,20 +989,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="17.712962962963" style="1" customWidth="1"/>
     <col min="2" max="2" width="33.5740740740741" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88888888888889" style="1"/>
+    <col min="3" max="3" width="8.88888888888889" style="1"/>
+    <col min="4" max="4" width="28.5555555555556" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:3">
+    <row r="1" s="1" customFormat="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1006,16 +1014,22 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:3">
-      <c r="A2" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/data.xlsx
+++ b/testdata/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000"/>
+    <workbookView windowWidth="23040" windowHeight="10187"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>username</t>
   </si>
@@ -41,13 +41,74 @@
     <t>personal_account_iban</t>
   </si>
   <si>
+    <t>personal_account_name</t>
+  </si>
+  <si>
+    <t>copied_account_details_for_personal_account</t>
+  </si>
+  <si>
+    <t>personal_account_number</t>
+  </si>
+  <si>
+    <t>personal_name</t>
+  </si>
+  <si>
+    <t>personal_account_iban2</t>
+  </si>
+  <si>
+    <t>personal_account_name2</t>
+  </si>
+  <si>
+    <t>personal_account_iban3</t>
+  </si>
+  <si>
+    <t>personal_account_name3</t>
+  </si>
+  <si>
     <t>Osir ANOEV</t>
   </si>
   <si>
     <t>ART02</t>
   </si>
   <si>
+    <t>205-9031004419532-81</t>
+  </si>
+  <si>
+    <t>Foreign currency payment accounts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Account type: Current account Account owner: OSIR ANOEV Account number: RS35 2059 0310 0441 9532 81 BIC: KOBBRSBG </t>
+  </si>
+  <si>
+    <t>RS35 2059 0310 0441 9532 81</t>
+  </si>
+  <si>
+    <t>OSIR ANOEV</t>
+  </si>
+  <si>
     <t>205-9031004417882-84</t>
+  </si>
+  <si>
+    <t>205-9001007790944-88</t>
+  </si>
+  <si>
+    <t>Payment account with basic services</t>
+  </si>
+  <si>
+    <t>Drre ĆEVMI</t>
+  </si>
+  <si>
+    <t>blabla</t>
+  </si>
+  <si>
+    <t>205-9031002637397-40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Account type: Current account Account owner: DRRE ĆEVMI Account number: RS35 2059 0310 0263 7397 40 BIC: KOBBRSBG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS35 2059 0310 0263 7397 40
+</t>
   </si>
 </sst>
 </file>
@@ -60,13 +121,32 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF1E1E1E"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF1E1E1E"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF666666"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -533,141 +613,153 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -989,22 +1081,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="17.712962962963" style="1" customWidth="1"/>
     <col min="2" max="2" width="33.5740740740741" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.88888888888889" style="1"/>
     <col min="4" max="4" width="28.5555555555556" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88888888888889" style="1"/>
+    <col min="5" max="5" width="71.2222222222222" style="1" customWidth="1"/>
+    <col min="6" max="6" width="125.222222222222" style="1" customWidth="1"/>
+    <col min="7" max="7" width="36.1111111111111" style="1" customWidth="1"/>
+    <col min="8" max="8" width="28.4444444444444" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.3333333333333" style="1" customWidth="1"/>
+    <col min="10" max="10" width="35.1111111111111" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.3333333333333" style="1" customWidth="1"/>
+    <col min="12" max="12" width="30.1111111111111" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:4">
+    <row r="1" s="1" customFormat="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1017,20 +1117,92 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:4">
+    <row r="2" s="1" customFormat="1" ht="39.6" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" ht="28.8" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/testdata/data.xlsx
+++ b/testdata/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="10187"/>
+    <workbookView windowWidth="23040" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
   <si>
     <t>username</t>
   </si>
@@ -53,6 +53,12 @@
     <t>personal_name</t>
   </si>
   <si>
+    <t>personal_account_iban1</t>
+  </si>
+  <si>
+    <t>personal_account_name1</t>
+  </si>
+  <si>
     <t>personal_account_iban2</t>
   </si>
   <si>
@@ -65,6 +71,36 @@
     <t>personal_account_name3</t>
   </si>
   <si>
+    <t>credit_card_1_name</t>
+  </si>
+  <si>
+    <t>credit_card_1_bban</t>
+  </si>
+  <si>
+    <t>credit_card_2_name</t>
+  </si>
+  <si>
+    <t>credit_card_2_bban</t>
+  </si>
+  <si>
+    <t>savings_account_1_name</t>
+  </si>
+  <si>
+    <t>savings_account_1_bban</t>
+  </si>
+  <si>
+    <t>savings_account_2_name</t>
+  </si>
+  <si>
+    <t>savings_account_2_bban</t>
+  </si>
+  <si>
+    <t>term_deposit_1_name</t>
+  </si>
+  <si>
+    <t>term_deposits_1_bban</t>
+  </si>
+  <si>
     <t>Osir ANOEV</t>
   </si>
   <si>
@@ -93,6 +129,33 @@
   </si>
   <si>
     <t>Payment account with basic services</t>
+  </si>
+  <si>
+    <t>Visa prepaid</t>
+  </si>
+  <si>
+    <t>4431 3*** **** *011 8</t>
+  </si>
+  <si>
+    <t>Visa revolving card</t>
+  </si>
+  <si>
+    <t>4176 **** **** 8476</t>
+  </si>
+  <si>
+    <t>A vista deposit account</t>
+  </si>
+  <si>
+    <t>205-9011008384007-23</t>
+  </si>
+  <si>
+    <t>205-9011008395360-11</t>
+  </si>
+  <si>
+    <t>Term deposits</t>
+  </si>
+  <si>
+    <t>205-9032022325800-66</t>
   </si>
   <si>
     <t>Drre ĆEVMI</t>
@@ -1081,10 +1144,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:X3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="U23" sqref="U23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
@@ -1098,13 +1161,25 @@
     <col min="7" max="7" width="36.1111111111111" style="1" customWidth="1"/>
     <col min="8" max="8" width="28.4444444444444" style="1" customWidth="1"/>
     <col min="9" max="9" width="23.3333333333333" style="1" customWidth="1"/>
-    <col min="10" max="10" width="35.1111111111111" style="1" customWidth="1"/>
-    <col min="11" max="11" width="38.3333333333333" style="1" customWidth="1"/>
-    <col min="12" max="12" width="30.1111111111111" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.88888888888889" style="1"/>
+    <col min="10" max="10" width="33" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.3333333333333" style="1" customWidth="1"/>
+    <col min="12" max="12" width="35.1111111111111" style="1" customWidth="1"/>
+    <col min="13" max="13" width="38.3333333333333" style="1" customWidth="1"/>
+    <col min="14" max="14" width="30.1111111111111" style="1" customWidth="1"/>
+    <col min="15" max="15" width="19.5555555555556" style="1" customWidth="1"/>
+    <col min="16" max="16" width="21.7777777777778" style="1" customWidth="1"/>
+    <col min="17" max="17" width="19.5555555555556" style="1" customWidth="1"/>
+    <col min="18" max="18" width="18.8888888888889" style="1" customWidth="1"/>
+    <col min="19" max="19" width="24.1111111111111" style="1" customWidth="1"/>
+    <col min="20" max="20" width="23.5555555555556" style="1" customWidth="1"/>
+    <col min="21" max="21" width="24.1111111111111" style="1" customWidth="1"/>
+    <col min="22" max="22" width="23.5555555555556" style="1" customWidth="1"/>
+    <col min="23" max="23" width="21.4444444444444" style="1" customWidth="1"/>
+    <col min="24" max="24" width="21.6666666666667" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:12">
+    <row r="1" s="1" customFormat="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1141,68 +1216,140 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="39.6" spans="1:12">
+    <row r="2" s="1" customFormat="1" ht="39.6" spans="1:24">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>15</v>
+        <v>26</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="3" ht="28.8" spans="1:11">
+    <row r="3" ht="28.8" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="5"/>
+        <v>47</v>
+      </c>
+      <c r="M3" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/testdata/data.xlsx
+++ b/testdata/data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
   <si>
     <t>username</t>
   </si>
@@ -50,6 +50,9 @@
     <t>personal_account_number</t>
   </si>
   <si>
+    <t>personal_account_number2</t>
+  </si>
+  <si>
     <t>personal_name</t>
   </si>
   <si>
@@ -117,6 +120,9 @@
   </si>
   <si>
     <t>RS35 2059 0310 0441 9532 81</t>
+  </si>
+  <si>
+    <t>RS35 2059 0310 0441 7882 84</t>
   </si>
   <si>
     <t>OSIR ANOEV</t>
@@ -1144,10 +1150,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X3"/>
+  <dimension ref="A1:Y3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="U23" sqref="U23"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
@@ -1159,27 +1165,27 @@
     <col min="5" max="5" width="71.2222222222222" style="1" customWidth="1"/>
     <col min="6" max="6" width="125.222222222222" style="1" customWidth="1"/>
     <col min="7" max="7" width="36.1111111111111" style="1" customWidth="1"/>
-    <col min="8" max="8" width="28.4444444444444" style="1" customWidth="1"/>
-    <col min="9" max="9" width="23.3333333333333" style="1" customWidth="1"/>
-    <col min="10" max="10" width="33" style="1" customWidth="1"/>
-    <col min="11" max="11" width="23.3333333333333" style="1" customWidth="1"/>
-    <col min="12" max="12" width="35.1111111111111" style="1" customWidth="1"/>
-    <col min="13" max="13" width="38.3333333333333" style="1" customWidth="1"/>
-    <col min="14" max="14" width="30.1111111111111" style="1" customWidth="1"/>
-    <col min="15" max="15" width="19.5555555555556" style="1" customWidth="1"/>
-    <col min="16" max="16" width="21.7777777777778" style="1" customWidth="1"/>
-    <col min="17" max="17" width="19.5555555555556" style="1" customWidth="1"/>
-    <col min="18" max="18" width="18.8888888888889" style="1" customWidth="1"/>
-    <col min="19" max="19" width="24.1111111111111" style="1" customWidth="1"/>
-    <col min="20" max="20" width="23.5555555555556" style="1" customWidth="1"/>
-    <col min="21" max="21" width="24.1111111111111" style="1" customWidth="1"/>
-    <col min="22" max="22" width="23.5555555555556" style="1" customWidth="1"/>
-    <col min="23" max="23" width="21.4444444444444" style="1" customWidth="1"/>
-    <col min="24" max="24" width="21.6666666666667" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="8.88888888888889" style="1"/>
+    <col min="8" max="9" width="28.4444444444444" style="1" customWidth="1"/>
+    <col min="10" max="10" width="23.3333333333333" style="1" customWidth="1"/>
+    <col min="11" max="11" width="33" style="1" customWidth="1"/>
+    <col min="12" max="12" width="23.3333333333333" style="1" customWidth="1"/>
+    <col min="13" max="13" width="35.1111111111111" style="1" customWidth="1"/>
+    <col min="14" max="14" width="38.3333333333333" style="1" customWidth="1"/>
+    <col min="15" max="15" width="30.1111111111111" style="1" customWidth="1"/>
+    <col min="16" max="16" width="19.5555555555556" style="1" customWidth="1"/>
+    <col min="17" max="17" width="21.7777777777778" style="1" customWidth="1"/>
+    <col min="18" max="18" width="19.5555555555556" style="1" customWidth="1"/>
+    <col min="19" max="19" width="18.8888888888889" style="1" customWidth="1"/>
+    <col min="20" max="20" width="24.1111111111111" style="1" customWidth="1"/>
+    <col min="21" max="21" width="23.5555555555556" style="1" customWidth="1"/>
+    <col min="22" max="22" width="24.1111111111111" style="1" customWidth="1"/>
+    <col min="23" max="23" width="23.5555555555556" style="1" customWidth="1"/>
+    <col min="24" max="24" width="21.4444444444444" style="1" customWidth="1"/>
+    <col min="25" max="25" width="21.6666666666667" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:24">
+    <row r="1" s="1" customFormat="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1252,104 +1258,110 @@
       <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="39.6" spans="1:24">
+    <row r="2" s="1" customFormat="1" ht="39.6" spans="1:25">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>40</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="3" ht="28.8" spans="1:13">
+    <row r="3" ht="28.8" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="M3" s="5"/>
+        <v>49</v>
+      </c>
+      <c r="N3" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/testdata/data.xlsx
+++ b/testdata/data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>username</t>
   </si>
@@ -65,6 +65,9 @@
     <t>personal_account_name3</t>
   </si>
   <si>
+    <t>pdf_download_path</t>
+  </si>
+  <si>
     <t>Osir ANOEV</t>
   </si>
   <si>
@@ -93,6 +96,9 @@
   </si>
   <si>
     <t>Payment account with basic services</t>
+  </si>
+  <si>
+    <t>C:\Users\Jelena Bulajic\Downloads</t>
   </si>
   <si>
     <t>Drre ĆEVMI</t>
@@ -121,7 +127,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,6 +141,11 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="15"/>
@@ -613,137 +624,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -756,10 +767,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1081,10 +1095,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
@@ -1101,10 +1115,11 @@
     <col min="10" max="10" width="35.1111111111111" style="1" customWidth="1"/>
     <col min="11" max="11" width="38.3333333333333" style="1" customWidth="1"/>
     <col min="12" max="12" width="30.1111111111111" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.88888888888889" style="1"/>
+    <col min="13" max="13" width="39.7777777777778" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:12">
+    <row r="1" s="1" customFormat="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1141,68 +1156,74 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="39.6" spans="1:12">
+    <row r="2" s="1" customFormat="1" ht="39.6" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" ht="28.8" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="K3" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/testdata/data.xlsx
+++ b/testdata/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000"/>
+    <workbookView windowWidth="23040" windowHeight="10187"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
   <si>
     <t>username</t>
   </si>
@@ -104,6 +104,9 @@
     <t>term_deposits_1_bban</t>
   </si>
   <si>
+    <t>pdf_download_path</t>
+  </si>
+  <si>
     <t>Osir ANOEV</t>
   </si>
   <si>
@@ -162,6 +165,9 @@
   </si>
   <si>
     <t>205-9032022325800-66</t>
+  </si>
+  <si>
+    <t>C:\Users\Jelena Bulajic\Downloads</t>
   </si>
   <si>
     <t>Drre ĆEVMI</t>
@@ -190,7 +196,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,6 +221,11 @@
       <sz val="12"/>
       <color rgb="FF666666"/>
       <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
@@ -682,137 +693,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -829,6 +840,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1150,10 +1164,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y3"/>
+  <dimension ref="A1:Z3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
@@ -1182,10 +1196,11 @@
     <col min="23" max="23" width="23.5555555555556" style="1" customWidth="1"/>
     <col min="24" max="24" width="21.4444444444444" style="1" customWidth="1"/>
     <col min="25" max="25" width="21.6666666666667" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88888888888889" style="1"/>
+    <col min="26" max="26" width="37.3333333333333" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:25">
+    <row r="1" s="1" customFormat="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1261,105 +1276,111 @@
       <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="Z1" s="6" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="39.6" spans="1:25">
+    <row r="2" s="1" customFormat="1" ht="39.6" spans="1:26">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="W2" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="3" ht="28.8" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="N3" s="5"/>
     </row>

--- a/testdata/data.xlsx
+++ b/testdata/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="10187"/>
+    <workbookView windowWidth="22188" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
   <si>
     <t>username</t>
   </si>
@@ -104,9 +104,6 @@
     <t>term_deposits_1_bban</t>
   </si>
   <si>
-    <t>pdf_download_path</t>
-  </si>
-  <si>
     <t>Osir ANOEV</t>
   </si>
   <si>
@@ -165,9 +162,6 @@
   </si>
   <si>
     <t>205-9032022325800-66</t>
-  </si>
-  <si>
-    <t>C:\Users\Jelena Bulajic\Downloads</t>
   </si>
   <si>
     <t>Drre ĆEVMI</t>
@@ -1167,7 +1161,7 @@
   <dimension ref="A1:Z3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2"/>
+      <selection activeCell="Y6" sqref="Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
@@ -1276,111 +1270,106 @@
       <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="Z1" s="6"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="39.6" spans="1:25">
+      <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="39.6" spans="1:26">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="M2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="3" ht="28.8" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="N3" s="5"/>
     </row>

--- a/testdata/data.xlsx
+++ b/testdata/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9000"/>
+    <workbookView windowWidth="23040" windowHeight="10187"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1160,8 +1160,8 @@
   <sheetPr/>
   <dimension ref="A1:Z3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="Y6" sqref="Y6"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>

--- a/testdata/data.xlsx
+++ b/testdata/data.xlsx
@@ -1160,8 +1160,8 @@
   <sheetPr/>
   <dimension ref="A1:Z3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>

--- a/testdata/data.xlsx
+++ b/testdata/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="10187"/>
+    <workbookView windowWidth="22188" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
   <si>
     <t>username</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>OSIR ANOEV</t>
+  </si>
+  <si>
+    <t>Devizni platni račun</t>
   </si>
   <si>
     <t>205-9031004417882-84</t>
@@ -1160,8 +1163,8 @@
   <sheetPr/>
   <dimension ref="A1:Z3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
@@ -1304,72 +1307,72 @@
         <v>27</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>28</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="W2" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" ht="28.8" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>28</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N3" s="5"/>
     </row>

--- a/testdata/data.xlsx
+++ b/testdata/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9000"/>
+    <workbookView windowWidth="23040" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="43">
   <si>
     <t>username</t>
   </si>
@@ -38,40 +38,22 @@
     <t>isMock</t>
   </si>
   <si>
-    <t>personal_account_iban</t>
-  </si>
-  <si>
-    <t>personal_account_name</t>
-  </si>
-  <si>
-    <t>copied_account_details_for_personal_account</t>
-  </si>
-  <si>
-    <t>personal_account_number</t>
-  </si>
-  <si>
-    <t>personal_account_number2</t>
-  </si>
-  <si>
-    <t>personal_name</t>
-  </si>
-  <si>
-    <t>personal_account_iban1</t>
-  </si>
-  <si>
-    <t>personal_account_name1</t>
-  </si>
-  <si>
-    <t>personal_account_iban2</t>
-  </si>
-  <si>
-    <t>personal_account_name2</t>
-  </si>
-  <si>
-    <t>personal_account_iban3</t>
-  </si>
-  <si>
-    <t>personal_account_name3</t>
+    <t>current_account_1_name</t>
+  </si>
+  <si>
+    <t>current_account_1_bban</t>
+  </si>
+  <si>
+    <t>current_account_2_name</t>
+  </si>
+  <si>
+    <t>current_account_2_bban</t>
+  </si>
+  <si>
+    <t>current_account_3_name</t>
+  </si>
+  <si>
+    <t>current_account_3_bban</t>
   </si>
   <si>
     <t>credit_card_1_name</t>
@@ -104,40 +86,28 @@
     <t>term_deposits_1_bban</t>
   </si>
   <si>
+    <t>cardName</t>
+  </si>
+  <si>
     <t>Osir ANOEV</t>
   </si>
   <si>
     <t>ART02</t>
   </si>
   <si>
-    <t>205-9031004419532-81</t>
-  </si>
-  <si>
-    <t>Foreign currency payment accounts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Account type: Current account Account owner: OSIR ANOEV Account number: RS35 2059 0310 0441 9532 81 BIC: KOBBRSBG </t>
-  </si>
-  <si>
-    <t>RS35 2059 0310 0441 9532 81</t>
-  </si>
-  <si>
-    <t>RS35 2059 0310 0441 7882 84</t>
-  </si>
-  <si>
-    <t>OSIR ANOEV</t>
-  </si>
-  <si>
     <t>Devizni platni račun</t>
   </si>
   <si>
     <t>205-9031004417882-84</t>
   </si>
   <si>
+    <t>Tekući račun</t>
+  </si>
+  <si>
     <t>205-9001007790944-88</t>
   </si>
   <si>
-    <t>Payment account with basic services</t>
+    <t>.</t>
   </si>
   <si>
     <t>Visa prepaid</t>
@@ -161,26 +131,31 @@
     <t>205-9011008395360-11</t>
   </si>
   <si>
-    <t>Term deposits</t>
+    <t>Oročeni depozit</t>
   </si>
   <si>
     <t>205-9032022325800-66</t>
   </si>
   <si>
-    <t>Drre ĆEVMI</t>
-  </si>
-  <si>
-    <t>blabla</t>
-  </si>
-  <si>
-    <t>205-9031002637397-40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Account type: Current account Account owner: DRRE ĆEVMI Account number: RS35 2059 0310 0263 7397 40 BIC: KOBBRSBG </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS35 2059 0310 0263 7397 40
-</t>
+    <t>Enil ČIĆVI</t>
+  </si>
+  <si>
+    <t>205-9031009886201-58</t>
+  </si>
+  <si>
+    <t>205-9001010537788-94</t>
+  </si>
+  <si>
+    <t>205-9031008901983-32</t>
+  </si>
+  <si>
+    <t>Vklaragan OVIT</t>
+  </si>
+  <si>
+    <t>205-9001004906720-69</t>
+  </si>
+  <si>
+    <t>205-9031002331565-13</t>
   </si>
 </sst>
 </file>
@@ -193,37 +168,13 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color rgb="FF1E1E1E"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color rgb="FF1E1E1E"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF666666"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -370,12 +321,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -690,138 +647,141 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -829,18 +789,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1161,43 +1109,34 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z3"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="17.712962962963" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.5740740740741" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88888888888889" style="1"/>
-    <col min="4" max="4" width="28.5555555555556" style="1" customWidth="1"/>
-    <col min="5" max="5" width="71.2222222222222" style="1" customWidth="1"/>
-    <col min="6" max="6" width="125.222222222222" style="1" customWidth="1"/>
-    <col min="7" max="7" width="36.1111111111111" style="1" customWidth="1"/>
-    <col min="8" max="9" width="28.4444444444444" style="1" customWidth="1"/>
-    <col min="10" max="10" width="23.3333333333333" style="1" customWidth="1"/>
-    <col min="11" max="11" width="33" style="1" customWidth="1"/>
-    <col min="12" max="12" width="23.3333333333333" style="1" customWidth="1"/>
-    <col min="13" max="13" width="35.1111111111111" style="1" customWidth="1"/>
-    <col min="14" max="14" width="38.3333333333333" style="1" customWidth="1"/>
-    <col min="15" max="15" width="30.1111111111111" style="1" customWidth="1"/>
-    <col min="16" max="16" width="19.5555555555556" style="1" customWidth="1"/>
-    <col min="17" max="17" width="21.7777777777778" style="1" customWidth="1"/>
-    <col min="18" max="18" width="19.5555555555556" style="1" customWidth="1"/>
-    <col min="19" max="19" width="18.8888888888889" style="1" customWidth="1"/>
-    <col min="20" max="20" width="24.1111111111111" style="1" customWidth="1"/>
-    <col min="21" max="21" width="23.5555555555556" style="1" customWidth="1"/>
-    <col min="22" max="22" width="24.1111111111111" style="1" customWidth="1"/>
-    <col min="23" max="23" width="23.5555555555556" style="1" customWidth="1"/>
-    <col min="24" max="24" width="21.4444444444444" style="1" customWidth="1"/>
-    <col min="25" max="25" width="21.6666666666667" style="1" customWidth="1"/>
-    <col min="26" max="26" width="37.3333333333333" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="8.88888888888889" style="1"/>
+    <col min="1" max="1" width="17.712962962963" customWidth="1"/>
+    <col min="2" max="2" width="33.5740740740741" customWidth="1"/>
+    <col min="4" max="4" width="33" customWidth="1"/>
+    <col min="5" max="5" width="23.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="33.8888888888889" customWidth="1"/>
+    <col min="7" max="7" width="23.6666666666667" customWidth="1"/>
+    <col min="8" max="10" width="24.2222222222222" customWidth="1"/>
+    <col min="11" max="11" width="23.6666666666667" customWidth="1"/>
+    <col min="12" max="12" width="19.5555555555556" customWidth="1"/>
+    <col min="13" max="13" width="18.8888888888889" customWidth="1"/>
+    <col min="14" max="14" width="24.1111111111111" customWidth="1"/>
+    <col min="15" max="15" width="23.5555555555556" customWidth="1"/>
+    <col min="16" max="16" width="24.1111111111111" customWidth="1"/>
+    <col min="17" max="17" width="23.5555555555556" customWidth="1"/>
+    <col min="18" max="18" width="24.1111111111111" customWidth="1"/>
+    <col min="19" max="19" width="23.5555555555556" customWidth="1"/>
+    <col min="20" max="20" width="17.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:26">
+    <row r="1" s="1" customFormat="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1258,123 +1197,192 @@
       <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:20">
+      <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="6"/>
+      <c r="G2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="39.6" spans="1:25">
-      <c r="A2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="1" t="s">
+    <row r="3" customFormat="1" spans="1:20">
+      <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="B3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="F3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="H3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="J3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:20">
+      <c r="A4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="B4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="F4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" ht="28.8" spans="1:14">
-      <c r="A3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="N3" s="5"/>
+      <c r="H4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/testdata/data.xlsx
+++ b/testdata/data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="50">
   <si>
     <t>username</t>
   </si>
@@ -38,40 +38,25 @@
     <t>isMock</t>
   </si>
   <si>
-    <t>personal_account_iban</t>
-  </si>
-  <si>
-    <t>personal_account_name</t>
-  </si>
-  <si>
     <t>copied_account_details_for_personal_account</t>
   </si>
   <si>
-    <t>personal_account_number</t>
-  </si>
-  <si>
-    <t>personal_account_number2</t>
-  </si>
-  <si>
-    <t>personal_name</t>
-  </si>
-  <si>
-    <t>personal_account_iban1</t>
-  </si>
-  <si>
-    <t>personal_account_name1</t>
-  </si>
-  <si>
-    <t>personal_account_iban2</t>
-  </si>
-  <si>
-    <t>personal_account_name2</t>
-  </si>
-  <si>
-    <t>personal_account_iban3</t>
-  </si>
-  <si>
-    <t>personal_account_name3</t>
+    <t>current_account_1_name</t>
+  </si>
+  <si>
+    <t>current_account_1_bban</t>
+  </si>
+  <si>
+    <t>current_account_2_name</t>
+  </si>
+  <si>
+    <t>current_account_2_bban</t>
+  </si>
+  <si>
+    <t>current_account_3_name</t>
+  </si>
+  <si>
+    <t>current_account_3_bban</t>
   </si>
   <si>
     <t>credit_card_1_name</t>
@@ -104,42 +89,33 @@
     <t>term_deposits_1_bban</t>
   </si>
   <si>
+    <t>cardName</t>
+  </si>
+  <si>
     <t>Osir ANOEV</t>
   </si>
   <si>
     <t>ART02</t>
   </si>
   <si>
+    <t xml:space="preserve">Account type: Current account Account owner: OSIR ANOEV Account number: RS35 2059 0310 0441 9532 81 BIC: KOBBRSBG </t>
+  </si>
+  <si>
+    <t>Devizni platni račun</t>
+  </si>
+  <si>
+    <t>205-9031004417882-84</t>
+  </si>
+  <si>
+    <t>Tekući račun</t>
+  </si>
+  <si>
+    <t>205-9001007790944-88</t>
+  </si>
+  <si>
     <t>205-9031004419532-81</t>
   </si>
   <si>
-    <t>Foreign currency payment accounts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Account type: Current account Account owner: OSIR ANOEV Account number: RS35 2059 0310 0441 9532 81 BIC: KOBBRSBG </t>
-  </si>
-  <si>
-    <t>RS35 2059 0310 0441 9532 81</t>
-  </si>
-  <si>
-    <t>RS35 2059 0310 0441 7882 84</t>
-  </si>
-  <si>
-    <t>OSIR ANOEV</t>
-  </si>
-  <si>
-    <t>Devizni platni račun</t>
-  </si>
-  <si>
-    <t>205-9031004417882-84</t>
-  </si>
-  <si>
-    <t>205-9001007790944-88</t>
-  </si>
-  <si>
-    <t>Payment account with basic services</t>
-  </si>
-  <si>
     <t>Visa prepaid</t>
   </si>
   <si>
@@ -167,13 +143,34 @@
     <t>205-9032022325800-66</t>
   </si>
   <si>
+    <t>Enil ČIĆVI</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>205-9031009886201-58</t>
+  </si>
+  <si>
+    <t>205-9001010537788-94</t>
+  </si>
+  <si>
+    <t>205-9031008901983-32</t>
+  </si>
+  <si>
+    <t>Vklaragan OVIT</t>
+  </si>
+  <si>
+    <t>205-9001004906720-69</t>
+  </si>
+  <si>
+    <t>205-9031002331565-13</t>
+  </si>
+  <si>
     <t>Drre ĆEVMI</t>
   </si>
   <si>
     <t>blabla</t>
-  </si>
-  <si>
-    <t>205-9031002637397-40</t>
   </si>
   <si>
     <t xml:space="preserve">Account type: Current account Account owner: DRRE ĆEVMI Account number: RS35 2059 0310 0263 7397 40 BIC: KOBBRSBG </t>
@@ -193,7 +190,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,17 +199,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="15"/>
+      <sz val="11"/>
       <color rgb="FF1E1E1E"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color rgb="FF1E1E1E"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -221,11 +212,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -370,12 +356,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -690,133 +682,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -824,22 +816,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -894,7 +886,221 @@
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <horizontal style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    </tableStyle>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1161,43 +1367,37 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z3"/>
+  <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="17.712962962963" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.5740740740741" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88888888888889" style="1"/>
-    <col min="4" max="4" width="28.5555555555556" style="1" customWidth="1"/>
-    <col min="5" max="5" width="71.2222222222222" style="1" customWidth="1"/>
-    <col min="6" max="6" width="125.222222222222" style="1" customWidth="1"/>
-    <col min="7" max="7" width="36.1111111111111" style="1" customWidth="1"/>
-    <col min="8" max="9" width="28.4444444444444" style="1" customWidth="1"/>
-    <col min="10" max="10" width="23.3333333333333" style="1" customWidth="1"/>
-    <col min="11" max="11" width="33" style="1" customWidth="1"/>
-    <col min="12" max="12" width="23.3333333333333" style="1" customWidth="1"/>
-    <col min="13" max="13" width="35.1111111111111" style="1" customWidth="1"/>
-    <col min="14" max="14" width="38.3333333333333" style="1" customWidth="1"/>
-    <col min="15" max="15" width="30.1111111111111" style="1" customWidth="1"/>
-    <col min="16" max="16" width="19.5555555555556" style="1" customWidth="1"/>
-    <col min="17" max="17" width="21.7777777777778" style="1" customWidth="1"/>
-    <col min="18" max="18" width="19.5555555555556" style="1" customWidth="1"/>
-    <col min="19" max="19" width="18.8888888888889" style="1" customWidth="1"/>
-    <col min="20" max="20" width="24.1111111111111" style="1" customWidth="1"/>
-    <col min="21" max="21" width="23.5555555555556" style="1" customWidth="1"/>
-    <col min="22" max="22" width="24.1111111111111" style="1" customWidth="1"/>
-    <col min="23" max="23" width="23.5555555555556" style="1" customWidth="1"/>
-    <col min="24" max="24" width="21.4444444444444" style="1" customWidth="1"/>
-    <col min="25" max="25" width="21.6666666666667" style="1" customWidth="1"/>
-    <col min="26" max="26" width="37.3333333333333" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="8.88888888888889" style="1"/>
+    <col min="1" max="1" width="17.712962962963" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.5740740740741" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.88888888888889" style="3"/>
+    <col min="4" max="4" width="114.666666666667" style="3" customWidth="1"/>
+    <col min="5" max="5" width="33" style="3" customWidth="1"/>
+    <col min="6" max="6" width="114.777777777778" style="3" customWidth="1"/>
+    <col min="7" max="7" width="33.8888888888889" style="3" customWidth="1"/>
+    <col min="8" max="8" width="23.6666666666667" style="3" customWidth="1"/>
+    <col min="9" max="11" width="24.2222222222222" style="3" customWidth="1"/>
+    <col min="12" max="12" width="23.6666666666667" style="3" customWidth="1"/>
+    <col min="13" max="13" width="19.5555555555556" style="3" customWidth="1"/>
+    <col min="14" max="14" width="18.8888888888889" style="3" customWidth="1"/>
+    <col min="15" max="15" width="24.1111111111111" style="3" customWidth="1"/>
+    <col min="16" max="16" width="23.5555555555556" style="3" customWidth="1"/>
+    <col min="17" max="17" width="24.1111111111111" style="3" customWidth="1"/>
+    <col min="18" max="18" width="23.5555555555556" style="3" customWidth="1"/>
+    <col min="19" max="19" width="24.1111111111111" style="3" customWidth="1"/>
+    <col min="20" max="20" width="23.5555555555556" style="3" customWidth="1"/>
+    <col min="21" max="21" width="17.6666666666667" style="3" customWidth="1"/>
+    <col min="22" max="16384" width="8.88888888888889" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:26">
+    <row r="1" s="1" customFormat="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1261,120 +1461,217 @@
       <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:21">
+      <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="6"/>
+      <c r="F2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="39.6" spans="1:25">
-      <c r="A2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="3" s="3" customFormat="1" spans="1:21">
+      <c r="A3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="1">
+      <c r="H3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" s="3" customFormat="1" spans="1:21">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="28.8" spans="1:14">
+      <c r="A5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="2">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" ht="28.8" spans="1:14">
-      <c r="A3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="D5" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="E5" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="N3" s="5"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="4"/>
+      <c r="N5" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/testdata/data.xlsx
+++ b/testdata/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9000"/>
+    <workbookView windowWidth="23040" windowHeight="9467"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
   <si>
     <t>username</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>personal_account_name3</t>
+  </si>
+  <si>
+    <t>default_account_bban</t>
   </si>
   <si>
     <t>credit_card_1_name</t>
@@ -1161,10 +1164,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z3"/>
+  <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
@@ -1183,21 +1186,21 @@
     <col min="13" max="13" width="35.1111111111111" style="1" customWidth="1"/>
     <col min="14" max="14" width="38.3333333333333" style="1" customWidth="1"/>
     <col min="15" max="15" width="30.1111111111111" style="1" customWidth="1"/>
-    <col min="16" max="16" width="19.5555555555556" style="1" customWidth="1"/>
-    <col min="17" max="17" width="21.7777777777778" style="1" customWidth="1"/>
-    <col min="18" max="18" width="19.5555555555556" style="1" customWidth="1"/>
-    <col min="19" max="19" width="18.8888888888889" style="1" customWidth="1"/>
-    <col min="20" max="20" width="24.1111111111111" style="1" customWidth="1"/>
-    <col min="21" max="21" width="23.5555555555556" style="1" customWidth="1"/>
-    <col min="22" max="22" width="24.1111111111111" style="1" customWidth="1"/>
-    <col min="23" max="23" width="23.5555555555556" style="1" customWidth="1"/>
-    <col min="24" max="24" width="21.4444444444444" style="1" customWidth="1"/>
-    <col min="25" max="25" width="21.6666666666667" style="1" customWidth="1"/>
-    <col min="26" max="26" width="37.3333333333333" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="8.88888888888889" style="1"/>
+    <col min="16" max="17" width="19.5555555555556" style="1" customWidth="1"/>
+    <col min="18" max="18" width="21.7777777777778" style="1" customWidth="1"/>
+    <col min="19" max="19" width="19.5555555555556" style="1" customWidth="1"/>
+    <col min="20" max="20" width="18.8888888888889" style="1" customWidth="1"/>
+    <col min="21" max="21" width="24.1111111111111" style="1" customWidth="1"/>
+    <col min="22" max="22" width="23.5555555555556" style="1" customWidth="1"/>
+    <col min="23" max="23" width="24.1111111111111" style="1" customWidth="1"/>
+    <col min="24" max="24" width="23.5555555555556" style="1" customWidth="1"/>
+    <col min="25" max="25" width="21.4444444444444" style="1" customWidth="1"/>
+    <col min="26" max="26" width="21.6666666666667" style="1" customWidth="1"/>
+    <col min="27" max="27" width="37.3333333333333" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:26">
+    <row r="1" s="1" customFormat="1" spans="1:27">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1273,56 +1276,59 @@
       <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="6"/>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="6"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="39.6" spans="1:25">
+    <row r="2" s="1" customFormat="1" ht="39.6" spans="1:26">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="K2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="N2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>38</v>
@@ -1340,39 +1346,42 @@
         <v>42</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="X2" s="1" t="s">
         <v>44</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>45</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="3" ht="28.8" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N3" s="5"/>
     </row>

--- a/testdata/data.xlsx
+++ b/testdata/data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="45">
   <si>
     <t>username</t>
   </si>
@@ -156,6 +156,12 @@
   </si>
   <si>
     <t>205-9031002331565-13</t>
+  </si>
+  <si>
+    <t>Jail ĆEVGIMILĆ</t>
+  </si>
+  <si>
+    <t>205-9001007668260-25</t>
   </si>
 </sst>
 </file>
@@ -777,7 +783,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -789,6 +795,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1109,13 +1118,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="17.712962962963" customWidth="1"/>
     <col min="2" max="2" width="33.5740740740741" customWidth="1"/>
@@ -1384,6 +1397,68 @@
         <v>26</v>
       </c>
     </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R5" t="s">
+        <v>26</v>
+      </c>
+      <c r="S5" t="s">
+        <v>26</v>
+      </c>
+      <c r="T5" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/testdata/data.xlsx
+++ b/testdata/data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="51">
   <si>
     <t>username</t>
   </si>
@@ -178,6 +178,9 @@
   <si>
     <t xml:space="preserve">RS35 2059 0310 0263 7397 40
 </t>
+  </si>
+  <si>
+    <t>4313 **** **** 5507</t>
   </si>
 </sst>
 </file>
@@ -1369,8 +1372,8 @@
   <sheetPr/>
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4"/>
@@ -1669,8 +1672,13 @@
       <c r="E5" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="2"/>
       <c r="G5" s="4"/>
+      <c r="K5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="N5" s="6"/>
     </row>
   </sheetData>

--- a/testdata/data.xlsx
+++ b/testdata/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9000"/>
+    <workbookView windowWidth="23040" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="49">
   <si>
     <t>username</t>
   </si>
@@ -168,9 +168,6 @@
   </si>
   <si>
     <t>Drre ĆEVMI</t>
-  </si>
-  <si>
-    <t>blabla</t>
   </si>
   <si>
     <t xml:space="preserve">Account type: Current account Account owner: DRRE ĆEVMI Account number: RS35 2059 0310 0263 7397 40 BIC: KOBBRSBG </t>
@@ -190,7 +187,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,12 +201,6 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF666666"/>
-      <name val="Arial"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -682,137 +673,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -830,9 +821,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1370,7 +1358,7 @@
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4"/>
@@ -1653,25 +1641,70 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" ht="28.8" spans="1:14">
+    <row r="5" s="2" customFormat="1" ht="15" customHeight="1" spans="1:21">
       <c r="A5" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="4"/>
-      <c r="N5" s="6"/>
+      <c r="F5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/testdata/data.xlsx
+++ b/testdata/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000"/>
+    <workbookView windowWidth="23040" windowHeight="10187"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="51">
   <si>
     <t>username</t>
   </si>
@@ -44,6 +44,9 @@
     <t>current_account_1_name</t>
   </si>
   <si>
+    <t>current_account_1_number</t>
+  </si>
+  <si>
     <t>current_account_1_bban</t>
   </si>
   <si>
@@ -98,12 +101,15 @@
     <t>ART02</t>
   </si>
   <si>
-    <t xml:space="preserve">Account type: Current account Account owner: OSIR ANOEV Account number: RS35 2059 0310 0441 9532 81 BIC: KOBBRSBG </t>
+    <t xml:space="preserve">Account type: Current account Account owner: OSIR ANOEV Account number: RS35 2059 0310 0441 7882 84 BIC: KOBBRSBG </t>
   </si>
   <si>
     <t>Devizni platni račun</t>
   </si>
   <si>
+    <t>RS35 2059 0310 0441 7882 84</t>
+  </si>
+  <si>
     <t>205-9031004417882-84</t>
   </si>
   <si>
@@ -173,8 +179,7 @@
     <t xml:space="preserve">Account type: Current account Account owner: DRRE ĆEVMI Account number: RS35 2059 0310 0263 7397 40 BIC: KOBBRSBG </t>
   </si>
   <si>
-    <t xml:space="preserve">RS35 2059 0310 0263 7397 40
-</t>
+    <t>205-9031002637397-40</t>
   </si>
 </sst>
 </file>
@@ -187,13 +192,19 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1E1E1E"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -673,137 +684,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -820,6 +831,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1355,10 +1369,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U5"/>
+  <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4"/>
@@ -1368,24 +1382,24 @@
     <col min="3" max="3" width="8.88888888888889" style="3"/>
     <col min="4" max="4" width="114.666666666667" style="3" customWidth="1"/>
     <col min="5" max="5" width="33" style="3" customWidth="1"/>
-    <col min="6" max="6" width="114.777777777778" style="3" customWidth="1"/>
-    <col min="7" max="7" width="33.8888888888889" style="3" customWidth="1"/>
-    <col min="8" max="8" width="23.6666666666667" style="3" customWidth="1"/>
-    <col min="9" max="11" width="24.2222222222222" style="3" customWidth="1"/>
-    <col min="12" max="12" width="23.6666666666667" style="3" customWidth="1"/>
-    <col min="13" max="13" width="19.5555555555556" style="3" customWidth="1"/>
-    <col min="14" max="14" width="18.8888888888889" style="3" customWidth="1"/>
-    <col min="15" max="15" width="24.1111111111111" style="3" customWidth="1"/>
-    <col min="16" max="16" width="23.5555555555556" style="3" customWidth="1"/>
-    <col min="17" max="17" width="24.1111111111111" style="3" customWidth="1"/>
-    <col min="18" max="18" width="23.5555555555556" style="3" customWidth="1"/>
-    <col min="19" max="19" width="24.1111111111111" style="3" customWidth="1"/>
-    <col min="20" max="20" width="23.5555555555556" style="3" customWidth="1"/>
-    <col min="21" max="21" width="17.6666666666667" style="3" customWidth="1"/>
-    <col min="22" max="16384" width="8.88888888888889" style="3"/>
+    <col min="6" max="7" width="114.777777777778" style="3" customWidth="1"/>
+    <col min="8" max="8" width="33.8888888888889" style="3" customWidth="1"/>
+    <col min="9" max="9" width="23.6666666666667" style="3" customWidth="1"/>
+    <col min="10" max="12" width="24.2222222222222" style="3" customWidth="1"/>
+    <col min="13" max="13" width="23.6666666666667" style="3" customWidth="1"/>
+    <col min="14" max="14" width="19.5555555555556" style="3" customWidth="1"/>
+    <col min="15" max="15" width="18.8888888888889" style="3" customWidth="1"/>
+    <col min="16" max="16" width="24.1111111111111" style="3" customWidth="1"/>
+    <col min="17" max="17" width="23.5555555555556" style="3" customWidth="1"/>
+    <col min="18" max="18" width="24.1111111111111" style="3" customWidth="1"/>
+    <col min="19" max="19" width="23.5555555555556" style="3" customWidth="1"/>
+    <col min="20" max="20" width="24.1111111111111" style="3" customWidth="1"/>
+    <col min="21" max="21" width="23.5555555555556" style="3" customWidth="1"/>
+    <col min="22" max="22" width="17.6666666666667" style="3" customWidth="1"/>
+    <col min="23" max="16384" width="8.88888888888889" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:21">
+    <row r="1" s="1" customFormat="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1449,261 +1463,276 @@
       <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:21">
+    <row r="2" s="2" customFormat="1" spans="1:22">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="K2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>35</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:21">
+    <row r="3" s="3" customFormat="1" spans="1:22">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" spans="1:21">
+    <row r="4" s="3" customFormat="1" spans="1:22">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" ht="15" customHeight="1" spans="1:21">
+    <row r="5" s="2" customFormat="1" ht="15" customHeight="1" spans="1:22">
       <c r="A5" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>39</v>
+        <v>25</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/data.xlsx
+++ b/testdata/data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="52">
   <si>
     <t>username</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>cardName</t>
+  </si>
+  <si>
+    <t>default_account_bban</t>
   </si>
   <si>
     <t>Osir ANOEV</t>
@@ -192,7 +195,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,6 +215,11 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -684,137 +692,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -835,6 +843,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1369,10 +1380,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V5"/>
+  <dimension ref="A1:W5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="W5" sqref="W5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4"/>
@@ -1396,10 +1407,11 @@
     <col min="20" max="20" width="24.1111111111111" style="3" customWidth="1"/>
     <col min="21" max="21" width="23.5555555555556" style="3" customWidth="1"/>
     <col min="22" max="22" width="17.6666666666667" style="3" customWidth="1"/>
-    <col min="23" max="16384" width="8.88888888888889" style="3"/>
+    <col min="23" max="23" width="23.8888888888889" style="3" customWidth="1"/>
+    <col min="24" max="16384" width="8.88888888888889" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:22">
+    <row r="1" s="1" customFormat="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1466,273 +1478,288 @@
       <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="W1" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:22">
+    <row r="2" s="2" customFormat="1" spans="1:23">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="K2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>33</v>
-      </c>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:22">
+    <row r="3" s="3" customFormat="1" spans="1:23">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" spans="1:22">
+    <row r="4" s="3" customFormat="1" spans="1:23">
       <c r="A4" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" ht="15" customHeight="1" spans="1:22">
+    <row r="5" s="2" customFormat="1" ht="15" customHeight="1" spans="1:23">
       <c r="A5" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/data.xlsx
+++ b/testdata/data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="53">
   <si>
     <t>username</t>
   </si>
@@ -38,111 +38,111 @@
     <t>isMock</t>
   </si>
   <si>
+    <t>current_account_1_name</t>
+  </si>
+  <si>
+    <t>current_account_1_bban</t>
+  </si>
+  <si>
+    <t>current_account_2_name</t>
+  </si>
+  <si>
+    <t>current_account_2_bban</t>
+  </si>
+  <si>
+    <t>current_account_3_name</t>
+  </si>
+  <si>
+    <t>current_account_3_bban</t>
+  </si>
+  <si>
+    <t>credit_card_1_name</t>
+  </si>
+  <si>
+    <t>credit_card_1_bban</t>
+  </si>
+  <si>
+    <t>credit_card_2_name</t>
+  </si>
+  <si>
+    <t>credit_card_2_bban</t>
+  </si>
+  <si>
+    <t>savings_account_1_name</t>
+  </si>
+  <si>
+    <t>savings_account_1_bban</t>
+  </si>
+  <si>
+    <t>savings_account_2_name</t>
+  </si>
+  <si>
+    <t>savings_account_2_bban</t>
+  </si>
+  <si>
+    <t>term_deposit_1_name</t>
+  </si>
+  <si>
+    <t>term_deposits_1_bban</t>
+  </si>
+  <si>
+    <t>cardName</t>
+  </si>
+  <si>
     <t>copied_account_details_for_personal_account</t>
   </si>
   <si>
-    <t>current_account_1_name</t>
-  </si>
-  <si>
-    <t>current_account_1_bban</t>
-  </si>
-  <si>
-    <t>current_account_2_name</t>
-  </si>
-  <si>
-    <t>current_account_2_bban</t>
-  </si>
-  <si>
-    <t>current_account_3_name</t>
-  </si>
-  <si>
-    <t>current_account_3_bban</t>
-  </si>
-  <si>
-    <t>credit_card_1_name</t>
-  </si>
-  <si>
-    <t>credit_card_1_bban</t>
-  </si>
-  <si>
-    <t>credit_card_2_name</t>
-  </si>
-  <si>
-    <t>credit_card_2_bban</t>
-  </si>
-  <si>
-    <t>savings_account_1_name</t>
-  </si>
-  <si>
-    <t>savings_account_1_bban</t>
-  </si>
-  <si>
-    <t>savings_account_2_name</t>
-  </si>
-  <si>
-    <t>savings_account_2_bban</t>
-  </si>
-  <si>
-    <t>term_deposit_1_name</t>
-  </si>
-  <si>
-    <t>term_deposits_1_bban</t>
-  </si>
-  <si>
-    <t>cardName</t>
-  </si>
-  <si>
     <t>Osir ANOEV</t>
   </si>
   <si>
     <t>ART02</t>
   </si>
   <si>
+    <t>Devizni platni račun</t>
+  </si>
+  <si>
+    <t>205-9031004417882-84</t>
+  </si>
+  <si>
+    <t>Tekući račun</t>
+  </si>
+  <si>
+    <t>205-9001007790944-88</t>
+  </si>
+  <si>
+    <t>205-9031004419532-81</t>
+  </si>
+  <si>
+    <t>Visa prepaid</t>
+  </si>
+  <si>
+    <t>4431 3*** **** *011 8</t>
+  </si>
+  <si>
+    <t>Visa revolving card</t>
+  </si>
+  <si>
+    <t>4176 **** **** 8476</t>
+  </si>
+  <si>
+    <t>A vista deposit account</t>
+  </si>
+  <si>
+    <t>205-9011008384007-23</t>
+  </si>
+  <si>
+    <t>205-9011008395360-11</t>
+  </si>
+  <si>
+    <t>Term deposits</t>
+  </si>
+  <si>
+    <t>205-9032022325800-66</t>
+  </si>
+  <si>
     <t xml:space="preserve">Account type: Current account Account owner: OSIR ANOEV Account number: RS35 2059 0310 0441 9532 81 BIC: KOBBRSBG </t>
   </si>
   <si>
-    <t>Devizni platni račun</t>
-  </si>
-  <si>
-    <t>205-9031004417882-84</t>
-  </si>
-  <si>
-    <t>Tekući račun</t>
-  </si>
-  <si>
-    <t>205-9001007790944-88</t>
-  </si>
-  <si>
-    <t>205-9031004419532-81</t>
-  </si>
-  <si>
-    <t>Visa prepaid</t>
-  </si>
-  <si>
-    <t>4431 3*** **** *011 8</t>
-  </si>
-  <si>
-    <t>Visa revolving card</t>
-  </si>
-  <si>
-    <t>4176 **** **** 8476</t>
-  </si>
-  <si>
-    <t>A vista deposit account</t>
-  </si>
-  <si>
-    <t>205-9011008384007-23</t>
-  </si>
-  <si>
-    <t>205-9011008395360-11</t>
-  </si>
-  <si>
-    <t>Term deposits</t>
-  </si>
-  <si>
-    <t>205-9032022325800-66</t>
-  </si>
-  <si>
     <t>Enil ČIĆVI</t>
   </si>
   <si>
@@ -170,11 +170,22 @@
     <t>Drre ĆEVMI</t>
   </si>
   <si>
+    <t>RS35 2059 0310 0263 7397 40</t>
+  </si>
+  <si>
     <t xml:space="preserve">Account type: Current account Account owner: DRRE ĆEVMI Account number: RS35 2059 0310 0263 7397 40 BIC: KOBBRSBG </t>
   </si>
   <si>
-    <t xml:space="preserve">RS35 2059 0310 0263 7397 40
-</t>
+    <t>Jail ĆEVGIMILĆ</t>
+  </si>
+  <si>
+    <t>205-9001007668260-25</t>
+  </si>
+  <si>
+    <t>Veli NACMI</t>
+  </si>
+  <si>
+    <t>205-9001007159209-10</t>
   </si>
 </sst>
 </file>
@@ -803,7 +814,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -821,6 +832,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1355,33 +1369,37 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U5"/>
+  <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="17.712962962963" style="3" customWidth="1"/>
     <col min="2" max="2" width="33.5740740740741" style="3" customWidth="1"/>
     <col min="3" max="3" width="8.88888888888889" style="3"/>
-    <col min="4" max="4" width="114.666666666667" style="3" customWidth="1"/>
-    <col min="5" max="5" width="33" style="3" customWidth="1"/>
-    <col min="6" max="6" width="114.777777777778" style="3" customWidth="1"/>
-    <col min="7" max="7" width="33.8888888888889" style="3" customWidth="1"/>
-    <col min="8" max="8" width="23.6666666666667" style="3" customWidth="1"/>
-    <col min="9" max="11" width="24.2222222222222" style="3" customWidth="1"/>
-    <col min="12" max="12" width="23.6666666666667" style="3" customWidth="1"/>
-    <col min="13" max="13" width="19.5555555555556" style="3" customWidth="1"/>
-    <col min="14" max="14" width="18.8888888888889" style="3" customWidth="1"/>
-    <col min="15" max="15" width="24.1111111111111" style="3" customWidth="1"/>
-    <col min="16" max="16" width="23.5555555555556" style="3" customWidth="1"/>
-    <col min="17" max="17" width="24.1111111111111" style="3" customWidth="1"/>
-    <col min="18" max="18" width="23.5555555555556" style="3" customWidth="1"/>
-    <col min="19" max="19" width="24.1111111111111" style="3" customWidth="1"/>
-    <col min="20" max="20" width="23.5555555555556" style="3" customWidth="1"/>
-    <col min="21" max="21" width="17.6666666666667" style="3" customWidth="1"/>
+    <col min="4" max="4" width="33" style="3" customWidth="1"/>
+    <col min="5" max="5" width="23.6666666666667" style="3" customWidth="1"/>
+    <col min="6" max="6" width="33.8888888888889" style="3" customWidth="1"/>
+    <col min="7" max="7" width="23.6666666666667" style="3" customWidth="1"/>
+    <col min="8" max="10" width="24.2222222222222" style="3" customWidth="1"/>
+    <col min="11" max="11" width="23.6666666666667" style="3" customWidth="1"/>
+    <col min="12" max="12" width="19.5555555555556" style="3" customWidth="1"/>
+    <col min="13" max="13" width="18.8888888888889" style="3" customWidth="1"/>
+    <col min="14" max="14" width="24.1111111111111" style="3" customWidth="1"/>
+    <col min="15" max="15" width="23.5555555555556" style="3" customWidth="1"/>
+    <col min="16" max="16" width="24.1111111111111" style="3" customWidth="1"/>
+    <col min="17" max="17" width="23.5555555555556" style="3" customWidth="1"/>
+    <col min="18" max="18" width="24.1111111111111" style="3" customWidth="1"/>
+    <col min="19" max="19" width="23.5555555555556" style="3" customWidth="1"/>
+    <col min="20" max="20" width="17.6666666666667" style="3" customWidth="1"/>
+    <col min="21" max="21" width="107.555555555556" style="3" customWidth="1"/>
     <col min="22" max="16384" width="8.88888888888889" style="3"/>
   </cols>
   <sheetData>
@@ -1463,20 +1481,20 @@
       <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>28</v>
@@ -1497,10 +1515,10 @@
         <v>33</v>
       </c>
       <c r="P2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>35</v>
@@ -1509,10 +1527,10 @@
         <v>36</v>
       </c>
       <c r="T2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U2" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:21">
@@ -1525,24 +1543,26 @@
       <c r="C3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>39</v>
@@ -1574,9 +1594,7 @@
       <c r="T3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="U3" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="U3" s="2"/>
     </row>
     <row r="4" s="3" customFormat="1" spans="1:21">
       <c r="A4" s="1" t="s">
@@ -1588,18 +1606,20 @@
       <c r="C4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="E4" s="2" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>39</v>
@@ -1637,12 +1657,10 @@
       <c r="T4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="U4" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="U4" s="2"/>
     </row>
     <row r="5" s="2" customFormat="1" ht="15" customHeight="1" spans="1:21">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1651,58 +1669,179 @@
       <c r="C5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U5" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="U5" s="2" t="s">
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="T7" s="2" t="s">
         <v>39</v>
       </c>
     </row>

--- a/testdata/data.xlsx
+++ b/testdata/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="10187"/>
+    <workbookView windowWidth="23040" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="56">
   <si>
     <t>username</t>
   </si>
@@ -38,120 +38,120 @@
     <t>isMock</t>
   </si>
   <si>
+    <t>current_account_1_name</t>
+  </si>
+  <si>
+    <t>current_account_1_number</t>
+  </si>
+  <si>
+    <t>current_account_1_bban</t>
+  </si>
+  <si>
+    <t>current_account_2_name</t>
+  </si>
+  <si>
+    <t>current_account_2_bban</t>
+  </si>
+  <si>
+    <t>current_account_3_name</t>
+  </si>
+  <si>
+    <t>current_account_3_bban</t>
+  </si>
+  <si>
+    <t>credit_card_1_name</t>
+  </si>
+  <si>
+    <t>credit_card_1_bban</t>
+  </si>
+  <si>
+    <t>credit_card_2_name</t>
+  </si>
+  <si>
+    <t>credit_card_2_bban</t>
+  </si>
+  <si>
+    <t>savings_account_1_name</t>
+  </si>
+  <si>
+    <t>savings_account_1_bban</t>
+  </si>
+  <si>
+    <t>savings_account_2_name</t>
+  </si>
+  <si>
+    <t>savings_account_2_bban</t>
+  </si>
+  <si>
+    <t>term_deposit_1_name</t>
+  </si>
+  <si>
+    <t>term_deposits_1_bban</t>
+  </si>
+  <si>
+    <t>cardName</t>
+  </si>
+  <si>
+    <t>default_account_bban</t>
+  </si>
+  <si>
     <t>copied_account_details_for_personal_account</t>
   </si>
   <si>
-    <t>current_account_1_name</t>
-  </si>
-  <si>
-    <t>current_account_1_number</t>
-  </si>
-  <si>
-    <t>current_account_1_bban</t>
-  </si>
-  <si>
-    <t>current_account_2_name</t>
-  </si>
-  <si>
-    <t>current_account_2_bban</t>
-  </si>
-  <si>
-    <t>current_account_3_name</t>
-  </si>
-  <si>
-    <t>current_account_3_bban</t>
-  </si>
-  <si>
-    <t>credit_card_1_name</t>
-  </si>
-  <si>
-    <t>credit_card_1_bban</t>
-  </si>
-  <si>
-    <t>credit_card_2_name</t>
-  </si>
-  <si>
-    <t>credit_card_2_bban</t>
-  </si>
-  <si>
-    <t>savings_account_1_name</t>
-  </si>
-  <si>
-    <t>savings_account_1_bban</t>
-  </si>
-  <si>
-    <t>savings_account_2_name</t>
-  </si>
-  <si>
-    <t>savings_account_2_bban</t>
-  </si>
-  <si>
-    <t>term_deposit_1_name</t>
-  </si>
-  <si>
-    <t>term_deposits_1_bban</t>
-  </si>
-  <si>
-    <t>cardName</t>
-  </si>
-  <si>
-    <t>default_account_bban</t>
-  </si>
-  <si>
     <t>Osir ANOEV</t>
   </si>
   <si>
     <t>ART02</t>
   </si>
   <si>
+    <t>Devizni platni račun</t>
+  </si>
+  <si>
+    <t>RS35 2059 0310 0441 7882 84</t>
+  </si>
+  <si>
+    <t>205-9031004417882-84</t>
+  </si>
+  <si>
+    <t>Tekući račun</t>
+  </si>
+  <si>
+    <t>205-9001007790944-88</t>
+  </si>
+  <si>
+    <t>205-9031004419532-81</t>
+  </si>
+  <si>
+    <t>Visa prepaid</t>
+  </si>
+  <si>
+    <t>4431 3*** **** *011 8</t>
+  </si>
+  <si>
+    <t>Visa revolving card</t>
+  </si>
+  <si>
+    <t>4176 **** **** 8476</t>
+  </si>
+  <si>
+    <t>A vista deposit account</t>
+  </si>
+  <si>
+    <t>205-9011008384007-23</t>
+  </si>
+  <si>
+    <t>205-9011008395360-11</t>
+  </si>
+  <si>
+    <t>Term deposits</t>
+  </si>
+  <si>
+    <t>205-9032022325800-66</t>
+  </si>
+  <si>
     <t xml:space="preserve">Account type: Current account Account owner: OSIR ANOEV Account number: RS35 2059 0310 0441 7882 84 BIC: KOBBRSBG </t>
   </si>
   <si>
-    <t>Devizni platni račun</t>
-  </si>
-  <si>
-    <t>RS35 2059 0310 0441 7882 84</t>
-  </si>
-  <si>
-    <t>205-9031004417882-84</t>
-  </si>
-  <si>
-    <t>Tekući račun</t>
-  </si>
-  <si>
-    <t>205-9001007790944-88</t>
-  </si>
-  <si>
-    <t>205-9031004419532-81</t>
-  </si>
-  <si>
-    <t>Visa prepaid</t>
-  </si>
-  <si>
-    <t>4431 3*** **** *011 8</t>
-  </si>
-  <si>
-    <t>Visa revolving card</t>
-  </si>
-  <si>
-    <t>4176 **** **** 8476</t>
-  </si>
-  <si>
-    <t>A vista deposit account</t>
-  </si>
-  <si>
-    <t>205-9011008384007-23</t>
-  </si>
-  <si>
-    <t>205-9011008395360-11</t>
-  </si>
-  <si>
-    <t>Term deposits</t>
-  </si>
-  <si>
-    <t>205-9032022325800-66</t>
-  </si>
-  <si>
     <t>Enil ČIĆVI</t>
   </si>
   <si>
@@ -179,10 +179,22 @@
     <t>Drre ĆEVMI</t>
   </si>
   <si>
+    <t>205-9031002637397-40</t>
+  </si>
+  <si>
     <t xml:space="preserve">Account type: Current account Account owner: DRRE ĆEVMI Account number: RS35 2059 0310 0263 7397 40 BIC: KOBBRSBG </t>
   </si>
   <si>
-    <t>205-9031002637397-40</t>
+    <t>Jail ĆEVGIMILĆ</t>
+  </si>
+  <si>
+    <t>205-9001007668260-25</t>
+  </si>
+  <si>
+    <t>Veli NACMI</t>
+  </si>
+  <si>
+    <t>205-9001007159209-10</t>
   </si>
 </sst>
 </file>
@@ -822,7 +834,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -843,6 +855,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1380,34 +1395,35 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W5"/>
+  <dimension ref="A1:W7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="W5" sqref="W5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="17.712962962963" style="3" customWidth="1"/>
     <col min="2" max="2" width="33.5740740740741" style="3" customWidth="1"/>
     <col min="3" max="3" width="8.88888888888889" style="3"/>
-    <col min="4" max="4" width="114.666666666667" style="3" customWidth="1"/>
-    <col min="5" max="5" width="33" style="3" customWidth="1"/>
-    <col min="6" max="7" width="114.777777777778" style="3" customWidth="1"/>
-    <col min="8" max="8" width="33.8888888888889" style="3" customWidth="1"/>
-    <col min="9" max="9" width="23.6666666666667" style="3" customWidth="1"/>
-    <col min="10" max="12" width="24.2222222222222" style="3" customWidth="1"/>
-    <col min="13" max="13" width="23.6666666666667" style="3" customWidth="1"/>
-    <col min="14" max="14" width="19.5555555555556" style="3" customWidth="1"/>
-    <col min="15" max="15" width="18.8888888888889" style="3" customWidth="1"/>
-    <col min="16" max="16" width="24.1111111111111" style="3" customWidth="1"/>
-    <col min="17" max="17" width="23.5555555555556" style="3" customWidth="1"/>
-    <col min="18" max="18" width="24.1111111111111" style="3" customWidth="1"/>
-    <col min="19" max="19" width="23.5555555555556" style="3" customWidth="1"/>
-    <col min="20" max="20" width="24.1111111111111" style="3" customWidth="1"/>
-    <col min="21" max="21" width="23.5555555555556" style="3" customWidth="1"/>
-    <col min="22" max="22" width="17.6666666666667" style="3" customWidth="1"/>
-    <col min="23" max="23" width="23.8888888888889" style="3" customWidth="1"/>
+    <col min="4" max="4" width="33" style="3" customWidth="1"/>
+    <col min="5" max="5" width="26.1111111111111" style="3" customWidth="1"/>
+    <col min="6" max="6" width="23.6666666666667" style="3" customWidth="1"/>
+    <col min="7" max="7" width="33.8888888888889" style="3" customWidth="1"/>
+    <col min="8" max="8" width="23.6666666666667" style="3" customWidth="1"/>
+    <col min="9" max="11" width="24.2222222222222" style="3" customWidth="1"/>
+    <col min="12" max="12" width="23.6666666666667" style="3" customWidth="1"/>
+    <col min="13" max="13" width="19.5555555555556" style="3" customWidth="1"/>
+    <col min="14" max="14" width="18.8888888888889" style="3" customWidth="1"/>
+    <col min="15" max="15" width="24.1111111111111" style="3" customWidth="1"/>
+    <col min="16" max="16" width="23.5555555555556" style="3" customWidth="1"/>
+    <col min="17" max="17" width="24.1111111111111" style="3" customWidth="1"/>
+    <col min="18" max="18" width="23.5555555555556" style="3" customWidth="1"/>
+    <col min="19" max="19" width="24.1111111111111" style="3" customWidth="1"/>
+    <col min="20" max="20" width="23.5555555555556" style="3" customWidth="1"/>
+    <col min="21" max="21" width="17.6666666666667" style="3" customWidth="1"/>
+    <col min="22" max="22" width="23.8888888888889" style="3" customWidth="1"/>
+    <col min="23" max="23" width="103.111111111111" style="3" customWidth="1"/>
     <col min="24" max="16384" width="8.88888888888889" style="3"/>
   </cols>
   <sheetData>
@@ -1475,10 +1491,10 @@
       <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1495,23 +1511,23 @@
       <c r="D2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>26</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>31</v>
@@ -1532,10 +1548,10 @@
         <v>36</v>
       </c>
       <c r="Q2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>38</v>
@@ -1544,13 +1560,13 @@
         <v>39</v>
       </c>
       <c r="U2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="W2" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:23">
@@ -1563,27 +1579,29 @@
       <c r="C3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="E3" s="2" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>42</v>
@@ -1615,7 +1633,7 @@
       <c r="U3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="V3" s="3" t="s">
         <v>42</v>
       </c>
       <c r="W3" s="3" t="s">
@@ -1632,21 +1650,23 @@
       <c r="C4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="E4" s="2" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>42</v>
@@ -1684,7 +1704,7 @@
       <c r="U4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="V4" s="2" t="s">
+      <c r="V4" s="3" t="s">
         <v>42</v>
       </c>
       <c r="W4" s="3" t="s">
@@ -1692,7 +1712,7 @@
       </c>
     </row>
     <row r="5" s="2" customFormat="1" ht="15" customHeight="1" spans="1:23">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1701,64 +1721,197 @@
       <c r="C5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="W5" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="W5" s="2" t="s">
+    </row>
+    <row r="6" s="3" customFormat="1" spans="1:23">
+      <c r="A6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" s="3" customFormat="1" spans="1:20">
+      <c r="A7" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="T7" s="2" t="s">
         <v>42</v>
       </c>
     </row>

--- a/testdata/data.xlsx
+++ b/testdata/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000"/>
+    <workbookView windowWidth="22188" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="58">
   <si>
     <t>username</t>
   </si>
@@ -47,12 +47,18 @@
     <t>current_account_1_bban</t>
   </si>
   <si>
+    <t>current_account_1_iban</t>
+  </si>
+  <si>
     <t>current_account_2_name</t>
   </si>
   <si>
     <t>current_account_2_bban</t>
   </si>
   <si>
+    <t>current_account_2_iban</t>
+  </si>
+  <si>
     <t>current_account_3_name</t>
   </si>
   <si>
@@ -110,7 +116,7 @@
     <t>RS35 2059 0310 0441 7882 84</t>
   </si>
   <si>
-    <t>205-9031004417882-84</t>
+    <t>.</t>
   </si>
   <si>
     <t>Tekući račun</t>
@@ -155,9 +161,6 @@
     <t>Enil ČIĆVI</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
     <t>205-9031009886201-58</t>
   </si>
   <si>
@@ -179,7 +182,10 @@
     <t>Drre ĆEVMI</t>
   </si>
   <si>
-    <t>205-9031002637397-40</t>
+    <t>RS35 2059 0310 0263 7397 40</t>
+  </si>
+  <si>
+    <t>205-9001001626239-86</t>
   </si>
   <si>
     <t xml:space="preserve">Account type: Current account Account owner: DRRE ĆEVMI Account number: RS35 2059 0310 0263 7397 40 BIC: KOBBRSBG </t>
@@ -1395,10 +1401,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W7"/>
+  <dimension ref="A1:Y7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W10" sqref="W10"/>
+    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6"/>
@@ -1409,25 +1415,25 @@
     <col min="4" max="4" width="33" style="3" customWidth="1"/>
     <col min="5" max="5" width="26.1111111111111" style="3" customWidth="1"/>
     <col min="6" max="6" width="23.6666666666667" style="3" customWidth="1"/>
-    <col min="7" max="7" width="33.8888888888889" style="3" customWidth="1"/>
-    <col min="8" max="8" width="23.6666666666667" style="3" customWidth="1"/>
-    <col min="9" max="11" width="24.2222222222222" style="3" customWidth="1"/>
-    <col min="12" max="12" width="23.6666666666667" style="3" customWidth="1"/>
-    <col min="13" max="13" width="19.5555555555556" style="3" customWidth="1"/>
-    <col min="14" max="14" width="18.8888888888889" style="3" customWidth="1"/>
-    <col min="15" max="15" width="24.1111111111111" style="3" customWidth="1"/>
-    <col min="16" max="16" width="23.5555555555556" style="3" customWidth="1"/>
+    <col min="7" max="8" width="33.8888888888889" style="3" customWidth="1"/>
+    <col min="9" max="9" width="23.6666666666667" style="3" customWidth="1"/>
+    <col min="10" max="13" width="24.2222222222222" style="3" customWidth="1"/>
+    <col min="14" max="14" width="23.6666666666667" style="3" customWidth="1"/>
+    <col min="15" max="15" width="19.5555555555556" style="3" customWidth="1"/>
+    <col min="16" max="16" width="18.8888888888889" style="3" customWidth="1"/>
     <col min="17" max="17" width="24.1111111111111" style="3" customWidth="1"/>
     <col min="18" max="18" width="23.5555555555556" style="3" customWidth="1"/>
     <col min="19" max="19" width="24.1111111111111" style="3" customWidth="1"/>
     <col min="20" max="20" width="23.5555555555556" style="3" customWidth="1"/>
-    <col min="21" max="21" width="17.6666666666667" style="3" customWidth="1"/>
-    <col min="22" max="22" width="23.8888888888889" style="3" customWidth="1"/>
-    <col min="23" max="23" width="103.111111111111" style="3" customWidth="1"/>
-    <col min="24" max="16384" width="8.88888888888889" style="3"/>
+    <col min="21" max="21" width="24.1111111111111" style="3" customWidth="1"/>
+    <col min="22" max="22" width="23.5555555555556" style="3" customWidth="1"/>
+    <col min="23" max="23" width="17.6666666666667" style="3" customWidth="1"/>
+    <col min="24" max="24" width="23.8888888888889" style="3" customWidth="1"/>
+    <col min="25" max="25" width="103.111111111111" style="3" customWidth="1"/>
+    <col min="26" max="16384" width="8.88888888888889" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:23">
+    <row r="1" s="1" customFormat="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1491,46 +1497,52 @@
       <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="X1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:23">
+    <row r="2" s="2" customFormat="1" spans="1:25">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>32</v>
@@ -1548,371 +1560,395 @@
         <v>36</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="R2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>39</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:23">
+    <row r="3" s="3" customFormat="1" spans="1:25">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>28</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>42</v>
+        <v>29</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" spans="1:23">
+    <row r="4" s="3" customFormat="1" spans="1:25">
       <c r="A4" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>25</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>42</v>
+        <v>29</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" ht="15" customHeight="1" spans="1:23">
+    <row r="5" s="2" customFormat="1" ht="15" customHeight="1" spans="1:25">
       <c r="A5" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="W5" t="s">
-        <v>51</v>
+        <v>29</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" spans="1:23">
+    <row r="6" s="3" customFormat="1" spans="1:25">
       <c r="A6" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="J6" s="2"/>
       <c r="K6" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V6" s="3" t="s">
-        <v>42</v>
+        <v>29</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>42</v>
+        <v>29</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:20">
+    <row r="7" s="3" customFormat="1" spans="1:22">
       <c r="A7" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="J7" s="2"/>
       <c r="K7" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/data.xlsx
+++ b/testdata/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9000"/>
+    <workbookView windowWidth="23040" windowHeight="9467"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="64">
   <si>
     <t>username</t>
   </si>
@@ -65,6 +65,9 @@
     <t>current_account_3_bban</t>
   </si>
   <si>
+    <t>current_account_3_iban</t>
+  </si>
+  <si>
     <t>credit_card_1_name</t>
   </si>
   <si>
@@ -128,6 +131,9 @@
     <t>205-9031004419532-81</t>
   </si>
   <si>
+    <t>RS35 2059 0310 0441 9532 81</t>
+  </si>
+  <si>
     <t>Visa prepaid</t>
   </si>
   <si>
@@ -161,7 +167,7 @@
     <t>Enil ČIĆVI</t>
   </si>
   <si>
-    <t>205-9031009886201-58</t>
+    <t>RS35 2059 0310 0988 6201 58</t>
   </si>
   <si>
     <t>205-9001010537788-94</t>
@@ -170,6 +176,9 @@
     <t>205-9031008901983-32</t>
   </si>
   <si>
+    <t>RS35 2059 0310 0890 1983 32</t>
+  </si>
+  <si>
     <t>Vklaragan OVIT</t>
   </si>
   <si>
@@ -179,6 +188,9 @@
     <t>205-9031002331565-13</t>
   </si>
   <si>
+    <t>RS35 2059 0310 0233 1565 13</t>
+  </si>
+  <si>
     <t>Drre ĆEVMI</t>
   </si>
   <si>
@@ -197,10 +209,16 @@
     <t>205-9001007668260-25</t>
   </si>
   <si>
+    <t>RS35 2059 0310 0108 6257 79</t>
+  </si>
+  <si>
     <t>Veli NACMI</t>
   </si>
   <si>
     <t>205-9001007159209-10</t>
+  </si>
+  <si>
+    <t>RS35 2059 0310 2421 3507 04</t>
   </si>
 </sst>
 </file>
@@ -213,13 +231,19 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -710,137 +734,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -860,12 +884,18 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1401,10 +1431,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y7"/>
+  <dimension ref="A1:Z7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6"/>
@@ -1417,23 +1447,26 @@
     <col min="6" max="6" width="23.6666666666667" style="3" customWidth="1"/>
     <col min="7" max="8" width="33.8888888888889" style="3" customWidth="1"/>
     <col min="9" max="9" width="23.6666666666667" style="3" customWidth="1"/>
-    <col min="10" max="13" width="24.2222222222222" style="3" customWidth="1"/>
-    <col min="14" max="14" width="23.6666666666667" style="3" customWidth="1"/>
-    <col min="15" max="15" width="19.5555555555556" style="3" customWidth="1"/>
-    <col min="16" max="16" width="18.8888888888889" style="3" customWidth="1"/>
-    <col min="17" max="17" width="24.1111111111111" style="3" customWidth="1"/>
-    <col min="18" max="18" width="23.5555555555556" style="3" customWidth="1"/>
-    <col min="19" max="19" width="24.1111111111111" style="3" customWidth="1"/>
-    <col min="20" max="20" width="23.5555555555556" style="3" customWidth="1"/>
-    <col min="21" max="21" width="24.1111111111111" style="3" customWidth="1"/>
-    <col min="22" max="22" width="23.5555555555556" style="3" customWidth="1"/>
-    <col min="23" max="23" width="17.6666666666667" style="3" customWidth="1"/>
-    <col min="24" max="24" width="23.8888888888889" style="3" customWidth="1"/>
-    <col min="25" max="25" width="103.111111111111" style="3" customWidth="1"/>
-    <col min="26" max="16384" width="8.88888888888889" style="3"/>
+    <col min="10" max="10" width="28.7407407407407" style="3" customWidth="1"/>
+    <col min="11" max="12" width="24.2222222222222" style="3" customWidth="1"/>
+    <col min="13" max="13" width="28.8611111111111" style="3" customWidth="1"/>
+    <col min="14" max="14" width="24.2222222222222" style="3" customWidth="1"/>
+    <col min="15" max="15" width="23.6666666666667" style="3" customWidth="1"/>
+    <col min="16" max="16" width="19.5555555555556" style="3" customWidth="1"/>
+    <col min="17" max="17" width="18.8888888888889" style="3" customWidth="1"/>
+    <col min="18" max="18" width="24.1111111111111" style="3" customWidth="1"/>
+    <col min="19" max="19" width="23.5555555555556" style="3" customWidth="1"/>
+    <col min="20" max="20" width="24.1111111111111" style="3" customWidth="1"/>
+    <col min="21" max="21" width="23.5555555555556" style="3" customWidth="1"/>
+    <col min="22" max="22" width="24.1111111111111" style="3" customWidth="1"/>
+    <col min="23" max="23" width="23.5555555555556" style="3" customWidth="1"/>
+    <col min="24" max="24" width="17.6666666666667" style="3" customWidth="1"/>
+    <col min="25" max="25" width="23.8888888888889" style="3" customWidth="1"/>
+    <col min="26" max="26" width="103.111111111111" style="3" customWidth="1"/>
+    <col min="27" max="16384" width="8.88888888888889" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:25">
+    <row r="1" s="1" customFormat="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1503,452 +1536,485 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="10" t="s">
         <v>24</v>
       </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:25">
+    <row r="2" s="2" customFormat="1" spans="1:26">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="L2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>39</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="X2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:26">
+      <c r="A3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Y2" s="2" t="s">
-        <v>42</v>
+      <c r="I3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:25">
-      <c r="A3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>29</v>
+    <row r="4" s="3" customFormat="1" spans="1:26">
+      <c r="A4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" spans="1:25">
-      <c r="A4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>29</v>
+    <row r="5" s="2" customFormat="1" ht="15" customHeight="1" spans="1:26">
+      <c r="A5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" ht="15" customHeight="1" spans="1:25">
-      <c r="A5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="W5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="X5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>53</v>
+    <row r="6" s="3" customFormat="1" spans="1:26">
+      <c r="A6" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" spans="1:25">
-      <c r="A6" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="W6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="X6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y6" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" s="3" customFormat="1" spans="1:22">
-      <c r="A7" s="7" t="s">
-        <v>56</v>
+    <row r="7" s="3" customFormat="1" spans="1:23">
+      <c r="A7" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G7" s="2"/>
+        <v>62</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="H7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="K7" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/data.xlsx
+++ b/testdata/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9467"/>
+    <workbookView windowWidth="23040" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="68">
   <si>
     <t>username</t>
   </si>
@@ -41,9 +41,6 @@
     <t>current_account_1_name</t>
   </si>
   <si>
-    <t>current_account_1_number</t>
-  </si>
-  <si>
     <t>current_account_1_bban</t>
   </si>
   <si>
@@ -80,16 +77,22 @@
     <t>credit_card_2_bban</t>
   </si>
   <si>
+    <t>credit_card_3_name</t>
+  </si>
+  <si>
+    <t>credit_card_3_bban</t>
+  </si>
+  <si>
     <t>savings_account_1_name</t>
   </si>
   <si>
-    <t>savings_account_1_bban</t>
+    <t>savings_account_1_number</t>
   </si>
   <si>
     <t>savings_account_2_name</t>
   </si>
   <si>
-    <t>savings_account_2_bban</t>
+    <t>savings_account_2_number</t>
   </si>
   <si>
     <t>term_deposit_1_name</t>
@@ -116,12 +119,12 @@
     <t>Devizni platni račun</t>
   </si>
   <si>
+    <t>.</t>
+  </si>
+  <si>
     <t>RS35 2059 0310 0441 7882 84</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
     <t>Tekući račun</t>
   </si>
   <si>
@@ -146,16 +149,22 @@
     <t>4176 **** **** 8476</t>
   </si>
   <si>
+    <t>4431 **** **** 0118</t>
+  </si>
+  <si>
+    <t>A vista depozitni račun</t>
+  </si>
+  <si>
+    <t>90110083953601</t>
+  </si>
+  <si>
     <t>A vista deposit account</t>
   </si>
   <si>
-    <t>205-9011008384007-23</t>
-  </si>
-  <si>
     <t>205-9011008395360-11</t>
   </si>
   <si>
-    <t>Term deposits</t>
+    <t>Oročeni depozit</t>
   </si>
   <si>
     <t>205-9032022325800-66</t>
@@ -179,16 +188,19 @@
     <t>RS35 2059 0310 0890 1983 32</t>
   </si>
   <si>
+    <t>205-9032030694661-90</t>
+  </si>
+  <si>
     <t>Vklaragan OVIT</t>
   </si>
   <si>
     <t>205-9001004906720-69</t>
   </si>
   <si>
+    <t>RS35 2059 0310 0233 1565 13</t>
+  </si>
+  <si>
     <t>205-9031002331565-13</t>
-  </si>
-  <si>
-    <t>RS35 2059 0310 0233 1565 13</t>
   </si>
   <si>
     <t>Drre ĆEVMI</t>
@@ -896,6 +908,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1431,10 +1446,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:AA7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11:I12"/>
+    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6"/>
@@ -1443,30 +1462,29 @@
     <col min="2" max="2" width="33.5740740740741" style="3" customWidth="1"/>
     <col min="3" max="3" width="8.88888888888889" style="3"/>
     <col min="4" max="4" width="33" style="3" customWidth="1"/>
-    <col min="5" max="5" width="26.1111111111111" style="3" customWidth="1"/>
-    <col min="6" max="6" width="23.6666666666667" style="3" customWidth="1"/>
-    <col min="7" max="8" width="33.8888888888889" style="3" customWidth="1"/>
-    <col min="9" max="9" width="23.6666666666667" style="3" customWidth="1"/>
-    <col min="10" max="10" width="28.7407407407407" style="3" customWidth="1"/>
-    <col min="11" max="12" width="24.2222222222222" style="3" customWidth="1"/>
-    <col min="13" max="13" width="28.8611111111111" style="3" customWidth="1"/>
-    <col min="14" max="14" width="24.2222222222222" style="3" customWidth="1"/>
-    <col min="15" max="15" width="23.6666666666667" style="3" customWidth="1"/>
-    <col min="16" max="16" width="19.5555555555556" style="3" customWidth="1"/>
-    <col min="17" max="17" width="18.8888888888889" style="3" customWidth="1"/>
-    <col min="18" max="18" width="24.1111111111111" style="3" customWidth="1"/>
-    <col min="19" max="19" width="23.5555555555556" style="3" customWidth="1"/>
-    <col min="20" max="20" width="24.1111111111111" style="3" customWidth="1"/>
-    <col min="21" max="21" width="23.5555555555556" style="3" customWidth="1"/>
-    <col min="22" max="22" width="24.1111111111111" style="3" customWidth="1"/>
-    <col min="23" max="23" width="23.5555555555556" style="3" customWidth="1"/>
-    <col min="24" max="24" width="17.6666666666667" style="3" customWidth="1"/>
-    <col min="25" max="25" width="23.8888888888889" style="3" customWidth="1"/>
-    <col min="26" max="26" width="103.111111111111" style="3" customWidth="1"/>
-    <col min="27" max="16384" width="8.88888888888889" style="3"/>
+    <col min="5" max="5" width="23.6666666666667" style="3" customWidth="1"/>
+    <col min="6" max="7" width="33.8888888888889" style="3" customWidth="1"/>
+    <col min="8" max="8" width="23.6666666666667" style="3" customWidth="1"/>
+    <col min="9" max="9" width="28.7407407407407" style="3" customWidth="1"/>
+    <col min="10" max="11" width="24.2222222222222" style="3" customWidth="1"/>
+    <col min="12" max="12" width="28.8611111111111" style="3" customWidth="1"/>
+    <col min="13" max="13" width="24.2222222222222" style="3" customWidth="1"/>
+    <col min="14" max="14" width="23.6666666666667" style="3" customWidth="1"/>
+    <col min="15" max="15" width="19.5555555555556" style="3" customWidth="1"/>
+    <col min="16" max="16" width="18.8888888888889" style="3" customWidth="1"/>
+    <col min="17" max="19" width="24.1111111111111" style="3" customWidth="1"/>
+    <col min="20" max="20" width="25.4259259259259" style="3" customWidth="1"/>
+    <col min="21" max="21" width="24.1111111111111" style="3" customWidth="1"/>
+    <col min="22" max="22" width="25.8796296296296" style="3" customWidth="1"/>
+    <col min="23" max="23" width="24.1111111111111" style="3" customWidth="1"/>
+    <col min="24" max="24" width="23.5555555555556" style="3" customWidth="1"/>
+    <col min="25" max="25" width="17.6666666666667" style="3" customWidth="1"/>
+    <col min="26" max="26" width="23.8888888888889" style="3" customWidth="1"/>
+    <col min="27" max="27" width="103.111111111111" style="3" customWidth="1"/>
+    <col min="28" max="16384" width="8.88888888888889" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:26">
+    <row r="1" s="1" customFormat="1" spans="1:27">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1539,416 +1557,434 @@
       <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="10" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="10" t="s">
         <v>25</v>
       </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:26">
+    <row r="2" s="2" customFormat="1" spans="1:27">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="K2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T2" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:27">
+      <c r="A3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y2" s="2" t="s">
+      <c r="H3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" s="3" customFormat="1" spans="1:27">
+      <c r="A4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Z2" s="2" t="s">
-        <v>44</v>
+      <c r="E4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:26">
-      <c r="A3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>30</v>
+    <row r="5" s="2" customFormat="1" ht="15" customHeight="1" spans="1:27">
+      <c r="A5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" spans="1:26">
-      <c r="A4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z4" s="3" t="s">
+    <row r="6" s="3" customFormat="1" spans="1:27">
+      <c r="A6" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA6" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" ht="15" customHeight="1" spans="1:26">
-      <c r="A5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="W5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="X5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" s="3" customFormat="1" spans="1:26">
-      <c r="A6" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="W6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="X6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z6" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" s="3" customFormat="1" spans="1:23">
+    <row r="7" s="3" customFormat="1" spans="1:24">
       <c r="A7" s="8" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>30</v>
@@ -1957,25 +1993,25 @@
         <v>30</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>63</v>
+        <v>30</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>30</v>
@@ -2014,6 +2050,9 @@
         <v>30</v>
       </c>
       <c r="W7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="X7" s="2" t="s">
         <v>30</v>
       </c>
     </row>

--- a/testdata/data.xlsx
+++ b/testdata/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000"/>
+    <workbookView windowWidth="22188" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="67">
   <si>
     <t>username</t>
   </si>
@@ -98,7 +98,7 @@
     <t>term_deposit_1_name</t>
   </si>
   <si>
-    <t>term_deposits_1_bban</t>
+    <t>term_deposits_1_account_number</t>
   </si>
   <si>
     <t>cardName</t>
@@ -140,7 +140,7 @@
     <t>Visa prepaid</t>
   </si>
   <si>
-    <t>4431 3*** **** *011 8</t>
+    <t>4431 **** **** 0118</t>
   </si>
   <si>
     <t>Visa revolving card</t>
@@ -149,25 +149,22 @@
     <t>4176 **** **** 8476</t>
   </si>
   <si>
-    <t>4431 **** **** 0118</t>
-  </si>
-  <si>
     <t>A vista depozitni račun</t>
   </si>
   <si>
-    <t>90110083953601</t>
+    <t>9011008395360</t>
   </si>
   <si>
     <t>A vista deposit account</t>
   </si>
   <si>
-    <t>205-9011008395360-11</t>
+    <t>9011008384007</t>
   </si>
   <si>
     <t>Oročeni depozit</t>
   </si>
   <si>
-    <t>205-9032022325800-66</t>
+    <t>9032022325800</t>
   </si>
   <si>
     <t xml:space="preserve">Account type: Current account Account owner: OSIR ANOEV Account number: RS35 2059 0310 0441 7882 84 BIC: KOBBRSBG </t>
@@ -1449,11 +1446,11 @@
   <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6"/>
@@ -1477,7 +1474,7 @@
     <col min="21" max="21" width="24.1111111111111" style="3" customWidth="1"/>
     <col min="22" max="22" width="25.8796296296296" style="3" customWidth="1"/>
     <col min="23" max="23" width="24.1111111111111" style="3" customWidth="1"/>
-    <col min="24" max="24" width="23.5555555555556" style="3" customWidth="1"/>
+    <col min="24" max="24" width="32.1851851851852" style="3" customWidth="1"/>
     <col min="25" max="25" width="17.6666666666667" style="3" customWidth="1"/>
     <col min="26" max="26" width="23.8888888888889" style="3" customWidth="1"/>
     <col min="27" max="27" width="103.111111111111" style="3" customWidth="1"/>
@@ -1620,25 +1617,25 @@
         <v>36</v>
       </c>
       <c r="R2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="U2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="11" t="s">
         <v>45</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="Y2" s="2" t="s">
         <v>38</v>
@@ -1647,12 +1644,12 @@
         <v>33</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:27">
       <c r="A3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>30</v>
@@ -1667,13 +1664,13 @@
         <v>30</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>32</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>30</v>
@@ -1682,46 +1679,46 @@
         <v>29</v>
       </c>
       <c r="K3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="M3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="X3" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="Y3" s="2" t="s">
         <v>30</v>
@@ -1735,7 +1732,7 @@
     </row>
     <row r="4" s="3" customFormat="1" spans="1:27">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>30</v>
@@ -1747,16 +1744,16 @@
         <v>32</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>30</v>
@@ -1818,7 +1815,7 @@
     </row>
     <row r="5" s="2" customFormat="1" ht="15" customHeight="1" spans="1:27">
       <c r="A5" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>30</v>
@@ -1833,75 +1830,75 @@
         <v>30</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>32</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA5" t="s">
         <v>60</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="W5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="X5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="1" spans="1:27">
       <c r="A6" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>30</v>
@@ -1913,7 +1910,7 @@
         <v>32</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>30</v>
@@ -1925,7 +1922,7 @@
         <v>30</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>30</v>
@@ -1984,7 +1981,7 @@
     </row>
     <row r="7" s="3" customFormat="1" spans="1:24">
       <c r="A7" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>30</v>
@@ -1996,7 +1993,7 @@
         <v>32</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>30</v>
@@ -2008,7 +2005,7 @@
         <v>30</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>30</v>

--- a/testdata/data.xlsx
+++ b/testdata/data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="71">
   <si>
     <t>username</t>
   </si>
@@ -110,6 +110,12 @@
     <t>copied_account_details_for_personal_account</t>
   </si>
   <si>
+    <t>loan_account_1_name</t>
+  </si>
+  <si>
+    <t>loan_account_1_number</t>
+  </si>
+  <si>
     <t>Osir ANOEV</t>
   </si>
   <si>
@@ -219,6 +225,12 @@
   </si>
   <si>
     <t>RS35 2059 0310 0108 6257 79</t>
+  </si>
+  <si>
+    <t>Gotovinski kredit</t>
+  </si>
+  <si>
+    <t>0049032401456</t>
   </si>
   <si>
     <t>Veli NACMI</t>
@@ -240,7 +252,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,6 +282,11 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Courier New"/>
       <charset val="134"/>
     </font>
     <font>
@@ -743,137 +760,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -907,7 +924,13 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1443,14 +1466,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AA7"/>
+  <dimension ref="A1:AC7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AA2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="V12" sqref="V12"/>
+      <selection pane="bottomRight" activeCell="AA11" sqref="AA11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6"/>
@@ -1477,11 +1500,13 @@
     <col min="24" max="24" width="32.1851851851852" style="3" customWidth="1"/>
     <col min="25" max="25" width="17.6666666666667" style="3" customWidth="1"/>
     <col min="26" max="26" width="23.8888888888889" style="3" customWidth="1"/>
-    <col min="27" max="27" width="103.111111111111" style="3" customWidth="1"/>
-    <col min="28" max="16384" width="8.88888888888889" style="3"/>
+    <col min="27" max="27" width="114.777777777778" style="3" customWidth="1"/>
+    <col min="28" max="28" width="26.0092592592593" style="3" customWidth="1"/>
+    <col min="29" max="29" width="23.5555555555556" style="3" customWidth="1"/>
+    <col min="30" max="16384" width="8.88888888888889" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:27">
+    <row r="1" s="1" customFormat="1" spans="1:29">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1562,495 +1587,507 @@
       </c>
       <c r="AA1" s="1" t="s">
         <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:27">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="K2" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="V2" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X2" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="T2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="V2" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="X2" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="AA2" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:27">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" s="3" customFormat="1" spans="1:27">
       <c r="A4" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" ht="15" customHeight="1" spans="1:27">
       <c r="A5" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AA5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" spans="1:27">
+    <row r="6" s="3" customFormat="1" spans="1:29">
       <c r="A6" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Y6" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z6" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AA6" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="AB6" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC6" s="13" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="1" spans="1:24">
       <c r="A7" s="8" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/data.xlsx
+++ b/testdata/data.xlsx
@@ -1473,7 +1473,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AA11" sqref="AA11"/>
+      <selection pane="bottomRight" activeCell="AA19" sqref="AA19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6"/>

--- a/testdata/data.xlsx
+++ b/testdata/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9000"/>
+    <workbookView windowWidth="23040" windowHeight="9467"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="73">
   <si>
     <t>username</t>
   </si>
@@ -204,6 +204,12 @@
   </si>
   <si>
     <t>205-9031002331565-13</t>
+  </si>
+  <si>
+    <t>205-9031002328491-20</t>
+  </si>
+  <si>
+    <t>RS35 2059 0310 0232 8491 20</t>
   </si>
   <si>
     <t>Drre ĆEVMI</t>
@@ -1469,11 +1475,11 @@
   <dimension ref="A1:AC7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AA2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AA19" sqref="AA19"/>
+      <selection pane="bottomRight" activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6"/>
@@ -1786,17 +1792,17 @@
       <c r="H4" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>32</v>
+      <c r="I4" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>32</v>
@@ -1846,7 +1852,7 @@
     </row>
     <row r="5" s="2" customFormat="1" ht="15" customHeight="1" spans="1:27">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>32</v>
@@ -1861,13 +1867,13 @@
         <v>32</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>32</v>
@@ -1924,12 +1930,12 @@
         <v>32</v>
       </c>
       <c r="AA5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="1" spans="1:29">
       <c r="A6" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>32</v>
@@ -1941,7 +1947,7 @@
         <v>34</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>32</v>
@@ -1953,7 +1959,7 @@
         <v>32</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>32</v>
@@ -2010,15 +2016,15 @@
         <v>32</v>
       </c>
       <c r="AB6" s="11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AC6" s="13" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="1" spans="1:24">
       <c r="A7" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>32</v>
@@ -2030,7 +2036,7 @@
         <v>34</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>32</v>
@@ -2042,7 +2048,7 @@
         <v>32</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>32</v>

--- a/testdata/data.xlsx
+++ b/testdata/data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="75">
   <si>
     <t>username</t>
   </si>
@@ -231,6 +231,12 @@
   </si>
   <si>
     <t>RS35 2059 0310 0108 6257 79</t>
+  </si>
+  <si>
+    <t>Visa Gold revolving</t>
+  </si>
+  <si>
+    <t>4176 **** **** 4328</t>
   </si>
   <si>
     <t>Gotovinski kredit</t>
@@ -1475,11 +1481,11 @@
   <dimension ref="A1:AC7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L5" sqref="L5"/>
+      <selection pane="bottomRight" activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6"/>
@@ -1601,7 +1607,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:27">
+    <row r="2" s="2" customFormat="1" spans="1:29">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
@@ -1683,8 +1689,14 @@
       <c r="AA2" s="2" t="s">
         <v>48</v>
       </c>
+      <c r="AB2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:27">
+    <row r="3" s="3" customFormat="1" spans="1:29">
       <c r="A3" s="1" t="s">
         <v>49</v>
       </c>
@@ -1766,8 +1778,14 @@
       <c r="AA3" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="AB3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="4" s="3" customFormat="1" spans="1:27">
+    <row r="4" s="3" customFormat="1" spans="1:29">
       <c r="A4" s="1" t="s">
         <v>55</v>
       </c>
@@ -1849,8 +1867,14 @@
       <c r="AA4" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="AB4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="5" s="2" customFormat="1" ht="15" customHeight="1" spans="1:27">
+    <row r="5" s="2" customFormat="1" ht="15" customHeight="1" spans="1:29">
       <c r="A5" s="1" t="s">
         <v>61</v>
       </c>
@@ -1931,6 +1955,12 @@
       </c>
       <c r="AA5" t="s">
         <v>64</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC5" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="1" spans="1:29">
@@ -1971,10 +2001,10 @@
         <v>32</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>32</v>
@@ -2006,7 +2036,7 @@
       <c r="X6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Y6" s="3" t="s">
+      <c r="Y6" s="2" t="s">
         <v>32</v>
       </c>
       <c r="Z6" s="3" t="s">
@@ -2016,15 +2046,15 @@
         <v>32</v>
       </c>
       <c r="AB6" s="11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AC6" s="13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:24">
+    <row r="7" s="3" customFormat="1" spans="1:29">
       <c r="A7" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>32</v>
@@ -2036,7 +2066,7 @@
         <v>34</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>32</v>
@@ -2048,7 +2078,7 @@
         <v>32</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>32</v>
@@ -2093,6 +2123,21 @@
         <v>32</v>
       </c>
       <c r="X7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC7" s="3" t="s">
         <v>32</v>
       </c>
     </row>

--- a/testdata/data.xlsx
+++ b/testdata/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9467"/>
+    <workbookView windowWidth="22188" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="73">
   <si>
     <t>username</t>
   </si>
@@ -59,9 +59,6 @@
     <t>current_account_3_name</t>
   </si>
   <si>
-    <t>current_account_3_bban</t>
-  </si>
-  <si>
     <t>current_account_3_iban</t>
   </si>
   <si>
@@ -135,9 +132,6 @@
   </si>
   <si>
     <t>205-9001007790944-88</t>
-  </si>
-  <si>
-    <t>205-9031004419532-81</t>
   </si>
   <si>
     <t>RS35 2059 0310 0441 9532 81</t>
@@ -1481,11 +1475,11 @@
   <dimension ref="A1:AC7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M1" sqref="M1"/>
+      <selection pane="bottomRight" activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6"/>
@@ -1498,7 +1492,8 @@
     <col min="6" max="7" width="33.8888888888889" style="3" customWidth="1"/>
     <col min="8" max="8" width="23.6666666666667" style="3" customWidth="1"/>
     <col min="9" max="9" width="28.7407407407407" style="3" customWidth="1"/>
-    <col min="10" max="11" width="24.2222222222222" style="3" customWidth="1"/>
+    <col min="10" max="10" width="24.2222222222222" style="3" customWidth="1"/>
+    <col min="11" max="11" width="27.8888888888889" style="3" customWidth="1"/>
     <col min="12" max="12" width="28.8611111111111" style="3" customWidth="1"/>
     <col min="13" max="13" width="24.2222222222222" style="3" customWidth="1"/>
     <col min="14" max="14" width="23.6666666666667" style="3" customWidth="1"/>
@@ -1553,592 +1548,592 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="10" t="s">
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:29">
       <c r="A2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="J2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="T2" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="U2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="V2" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="X2" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="R2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="T2" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="V2" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="W2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="X2" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="AB2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:29">
       <c r="A3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="I3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="L3" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" s="2" t="s">
+      <c r="M3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="X3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="L3" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="Y3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AB3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AC3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" s="3" customFormat="1" spans="1:29">
       <c r="A4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="G4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="I4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="M4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" ht="15" customHeight="1" spans="1:29">
       <c r="A5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="I5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA5" t="s">
         <v>62</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>64</v>
-      </c>
       <c r="AB5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AC5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="1" spans="1:29">
       <c r="A6" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="J6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="4" t="s">
+      <c r="N6" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M6" s="2" t="s">
+      <c r="O6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB6" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="AC6" s="13" t="s">
         <v>69</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB6" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC6" s="13" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="1" spans="1:29">
       <c r="A7" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="J7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Z7" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AA7" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AB7" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AC7" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/data.xlsx
+++ b/testdata/data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="74">
   <si>
     <t>username</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>Enil ČIĆVI</t>
+  </si>
+  <si>
+    <t>205-9001015647000-10</t>
   </si>
   <si>
     <t>RS35 2059 0310 0988 6201 58</t>
@@ -1475,11 +1478,11 @@
   <dimension ref="A1:AC7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M22" sqref="M22"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6"/>
@@ -1705,16 +1708,16 @@
         <v>30</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>33</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>31</v>
@@ -1723,10 +1726,10 @@
         <v>30</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>31</v>
@@ -1762,7 +1765,7 @@
         <v>44</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Y3" s="2" t="s">
         <v>31</v>
@@ -1782,7 +1785,7 @@
     </row>
     <row r="4" s="3" customFormat="1" spans="1:29">
       <c r="A4" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>31</v>
@@ -1794,28 +1797,28 @@
         <v>33</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>30</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>30</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>31</v>
@@ -1871,7 +1874,7 @@
     </row>
     <row r="5" s="2" customFormat="1" ht="15" customHeight="1" spans="1:29">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>31</v>
@@ -1886,13 +1889,13 @@
         <v>31</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>33</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>31</v>
@@ -1949,7 +1952,7 @@
         <v>31</v>
       </c>
       <c r="AA5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AB5" s="2" t="s">
         <v>31</v>
@@ -1960,7 +1963,7 @@
     </row>
     <row r="6" s="3" customFormat="1" spans="1:29">
       <c r="A6" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>31</v>
@@ -1972,7 +1975,7 @@
         <v>33</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>31</v>
@@ -1984,7 +1987,7 @@
         <v>31</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>31</v>
@@ -1996,10 +1999,10 @@
         <v>31</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>31</v>
@@ -2041,15 +2044,15 @@
         <v>31</v>
       </c>
       <c r="AB6" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AC6" s="13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="1" spans="1:29">
       <c r="A7" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>31</v>
@@ -2061,7 +2064,7 @@
         <v>33</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>31</v>
@@ -2073,7 +2076,7 @@
         <v>31</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>31</v>

--- a/testdata/data.xlsx
+++ b/testdata/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9000"/>
+    <workbookView windowWidth="13884" windowHeight="4356"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1478,11 +1478,11 @@
   <dimension ref="A1:AC7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6"/>

--- a/testdata/data.xlsx
+++ b/testdata/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13884" windowHeight="4356"/>
+    <workbookView windowWidth="22188" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="86">
   <si>
     <t>username</t>
   </si>
@@ -59,6 +59,9 @@
     <t>current_account_3_name</t>
   </si>
   <si>
+    <t>current_account_3_bban</t>
+  </si>
+  <si>
     <t>current_account_3_iban</t>
   </si>
   <si>
@@ -113,6 +116,27 @@
     <t>loan_account_1_number</t>
   </si>
   <si>
+    <t>user_name_for_payment_review</t>
+  </si>
+  <si>
+    <t>user_street_for_payment_review</t>
+  </si>
+  <si>
+    <t>user_city_for_payment_review</t>
+  </si>
+  <si>
+    <t>user_bban_for_payment_review</t>
+  </si>
+  <si>
+    <t>user_amount_for_payment_review</t>
+  </si>
+  <si>
+    <t>username_debtor_for_payment_review</t>
+  </si>
+  <si>
+    <t>user_address_for_payment_review</t>
+  </si>
+  <si>
     <t>Osir ANOEV</t>
   </si>
   <si>
@@ -170,6 +194,24 @@
     <t xml:space="preserve">Account type: Current account Account owner: OSIR ANOEV Account number: RS35 2059 0310 0441 7882 84 BIC: KOBBRSBG </t>
   </si>
   <si>
+    <t>PERA</t>
+  </si>
+  <si>
+    <t>ULICAA</t>
+  </si>
+  <si>
+    <t>BEOGRAD</t>
+  </si>
+  <si>
+    <t>205-9001001626239-86</t>
+  </si>
+  <si>
+    <t>ANOEV OSIR</t>
+  </si>
+  <si>
+    <t>ULICAA,BEOGRAD</t>
+  </si>
+  <si>
     <t>Enil ČIĆVI</t>
   </si>
   <si>
@@ -182,9 +224,6 @@
     <t>205-9001010537788-94</t>
   </si>
   <si>
-    <t>205-9031008901983-32</t>
-  </si>
-  <si>
     <t>RS35 2059 0310 0890 1983 32</t>
   </si>
   <si>
@@ -213,9 +252,6 @@
   </si>
   <si>
     <t>RS35 2059 0310 0263 7397 40</t>
-  </si>
-  <si>
-    <t>205-9001001626239-86</t>
   </si>
   <si>
     <t xml:space="preserve">Account type: Current account Account owner: DRRE ĆEVMI Account number: RS35 2059 0310 0263 7397 40 BIC: KOBBRSBG </t>
@@ -1475,14 +1511,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AC7"/>
+  <dimension ref="A1:AJ7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AD2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomRight" activeCell="AH2" sqref="AH2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6"/>
@@ -1513,10 +1549,16 @@
     <col min="27" max="27" width="114.777777777778" style="3" customWidth="1"/>
     <col min="28" max="28" width="26.0092592592593" style="3" customWidth="1"/>
     <col min="29" max="29" width="23.5555555555556" style="3" customWidth="1"/>
-    <col min="30" max="16384" width="8.88888888888889" style="3"/>
+    <col min="30" max="30" width="31" style="3" customWidth="1"/>
+    <col min="31" max="32" width="32.8888888888889" style="3" customWidth="1"/>
+    <col min="33" max="33" width="29.1111111111111" style="3" customWidth="1"/>
+    <col min="34" max="34" width="33" style="3" customWidth="1"/>
+    <col min="35" max="35" width="37.1111111111111" style="3" customWidth="1"/>
+    <col min="36" max="36" width="31.2222222222222" style="3" customWidth="1"/>
+    <col min="37" max="16384" width="8.88888888888889" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:29">
+    <row r="1" s="1" customFormat="1" spans="1:36">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1551,592 +1593,634 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z1" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:29">
+    <row r="2" s="2" customFormat="1" spans="1:36">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="T2" s="12" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="U2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V2" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="X2" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="V2" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="X2" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="AA2" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG2" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:29">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="L3" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="X3" s="2" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="AB3" s="3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="AC3" s="3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" s="3" customFormat="1" spans="1:29">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" ht="15" customHeight="1" spans="1:29">
       <c r="A5" s="1" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="AA5" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="AB5" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="AC5" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="1" spans="1:29">
       <c r="A6" s="8" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Z6" s="3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="AA6" s="3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="AB6" s="11" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="AC6" s="13" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="1" spans="1:29">
       <c r="A7" s="8" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Z7" s="3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="AA7" s="3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="AB7" s="3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="AC7" s="3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/data.xlsx
+++ b/testdata/data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="89">
   <si>
     <t>username</t>
   </si>
@@ -107,9 +107,6 @@
     <t>default_account_bban</t>
   </si>
   <si>
-    <t>copied_account_details_for_personal_account</t>
-  </si>
-  <si>
     <t>loan_account_1_name</t>
   </si>
   <si>
@@ -137,6 +134,12 @@
     <t>user_address_for_payment_review</t>
   </si>
   <si>
+    <t>user_country_short</t>
+  </si>
+  <si>
+    <t>user_city_short</t>
+  </si>
+  <si>
     <t>Osir ANOEV</t>
   </si>
   <si>
@@ -161,6 +164,9 @@
     <t>RS35 2059 0310 0441 9532 81</t>
   </si>
   <si>
+    <t>RS35 2059 0310 0021 5320 98</t>
+  </si>
+  <si>
     <t>Visa prepaid</t>
   </si>
   <si>
@@ -191,9 +197,6 @@
     <t>9032022325800</t>
   </si>
   <si>
-    <t xml:space="preserve">Account type: Current account Account owner: OSIR ANOEV Account number: RS35 2059 0310 0441 7882 84 BIC: KOBBRSBG </t>
-  </si>
-  <si>
     <t>PERA</t>
   </si>
   <si>
@@ -212,6 +215,15 @@
     <t>ULICAA,BEOGRAD</t>
   </si>
   <si>
+    <t>SERBIA</t>
+  </si>
+  <si>
+    <t>KOAR TGR</t>
+  </si>
+  <si>
+    <t>Beograd</t>
+  </si>
+  <si>
     <t>Enil ČIĆVI</t>
   </si>
   <si>
@@ -252,9 +264,6 @@
   </si>
   <si>
     <t>RS35 2059 0310 0263 7397 40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Account type: Current account Account owner: DRRE ĆEVMI Account number: RS35 2059 0310 0263 7397 40 BIC: KOBBRSBG </t>
   </si>
   <si>
     <t>Jail ĆEVGIMILĆ</t>
@@ -1511,14 +1520,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AJ7"/>
+  <dimension ref="A1:AL7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AD2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AH2" sqref="AH2"/>
+      <selection pane="bottomRight" activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6"/>
@@ -1546,19 +1555,21 @@
     <col min="24" max="24" width="32.1851851851852" style="3" customWidth="1"/>
     <col min="25" max="25" width="17.6666666666667" style="3" customWidth="1"/>
     <col min="26" max="26" width="23.8888888888889" style="3" customWidth="1"/>
-    <col min="27" max="27" width="114.777777777778" style="3" customWidth="1"/>
-    <col min="28" max="28" width="26.0092592592593" style="3" customWidth="1"/>
-    <col min="29" max="29" width="23.5555555555556" style="3" customWidth="1"/>
-    <col min="30" max="30" width="31" style="3" customWidth="1"/>
-    <col min="31" max="32" width="32.8888888888889" style="3" customWidth="1"/>
-    <col min="33" max="33" width="29.1111111111111" style="3" customWidth="1"/>
-    <col min="34" max="34" width="33" style="3" customWidth="1"/>
-    <col min="35" max="35" width="37.1111111111111" style="3" customWidth="1"/>
-    <col min="36" max="36" width="31.2222222222222" style="3" customWidth="1"/>
-    <col min="37" max="16384" width="8.88888888888889" style="3"/>
+    <col min="27" max="27" width="26.0092592592593" style="3" customWidth="1"/>
+    <col min="28" max="28" width="23.5555555555556" style="3" customWidth="1"/>
+    <col min="29" max="29" width="31" style="3" customWidth="1"/>
+    <col min="30" max="31" width="32.8888888888889" style="3" customWidth="1"/>
+    <col min="32" max="32" width="29.1111111111111" style="3" customWidth="1"/>
+    <col min="33" max="33" width="33" style="3" customWidth="1"/>
+    <col min="34" max="34" width="37.1111111111111" style="3" customWidth="1"/>
+    <col min="35" max="35" width="31.2222222222222" style="3" customWidth="1"/>
+    <col min="36" max="36" width="18.5555555555556" style="3" customWidth="1"/>
+    <col min="37" max="37" width="16.6666666666667" style="3" customWidth="1"/>
+    <col min="38" max="38" width="14.7777777777778" style="3" customWidth="1"/>
+    <col min="39" max="16384" width="8.88888888888889" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:36">
+    <row r="1" s="1" customFormat="1" spans="1:38">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1667,560 +1678,557 @@
       <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="AK1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:36">
+    <row r="2" s="2" customFormat="1" spans="1:38">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="K2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="V2" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF2" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:28">
+      <c r="A3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="2" t="s">
+      <c r="H3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" s="3" customFormat="1" spans="1:28">
+      <c r="A4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="T2" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="V2" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="X2" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z2" s="2" t="s">
+      <c r="H4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="15" customHeight="1" spans="1:28">
+      <c r="A5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AA2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB2" s="2" t="s">
+      <c r="H5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" s="3" customFormat="1" spans="1:28">
+      <c r="A6" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="H6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA6" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB6" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" s="3" customFormat="1" spans="1:28">
+      <c r="A7" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AD2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG2" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH2" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" s="3" customFormat="1" spans="1:29">
-      <c r="A3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC3" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" s="3" customFormat="1" spans="1:29">
-      <c r="A4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC4" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" s="2" customFormat="1" ht="15" customHeight="1" spans="1:29">
-      <c r="A5" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="W5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="X5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC5" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" s="3" customFormat="1" spans="1:29">
-      <c r="A6" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="W6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="X6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB6" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC6" s="13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" s="3" customFormat="1" spans="1:29">
-      <c r="A7" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="H7" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Z7" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AA7" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AB7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC7" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/data.xlsx
+++ b/testdata/data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="88">
   <si>
     <t>username</t>
   </si>
@@ -197,73 +197,70 @@
     <t>9032022325800</t>
   </si>
   <si>
-    <t>PERA</t>
+    <t>KOAR TGR</t>
   </si>
   <si>
     <t>ULICAA</t>
   </si>
   <si>
-    <t>BEOGRAD</t>
+    <t>Beograd</t>
+  </si>
+  <si>
+    <t>205-9001000243808-47</t>
+  </si>
+  <si>
+    <t>ANOEV OSIR</t>
+  </si>
+  <si>
+    <t>ULICAA,BEOGRAD</t>
+  </si>
+  <si>
+    <t>SERBIA</t>
+  </si>
+  <si>
+    <t>Enil ČIĆVI</t>
+  </si>
+  <si>
+    <t>205-9001015647000-10</t>
+  </si>
+  <si>
+    <t>RS35 2059 0310 0988 6201 58</t>
+  </si>
+  <si>
+    <t>205-9001010537788-94</t>
+  </si>
+  <si>
+    <t>RS35 2059 0310 0890 1983 32</t>
+  </si>
+  <si>
+    <t>205-9032030694661-90</t>
+  </si>
+  <si>
+    <t>Vklaragan OVIT</t>
+  </si>
+  <si>
+    <t>205-9001004906720-69</t>
+  </si>
+  <si>
+    <t>RS35 2059 0310 0233 1565 13</t>
+  </si>
+  <si>
+    <t>205-9031002331565-13</t>
+  </si>
+  <si>
+    <t>205-9031002328491-20</t>
+  </si>
+  <si>
+    <t>RS35 2059 0310 0232 8491 20</t>
+  </si>
+  <si>
+    <t>Drre ĆEVMI</t>
+  </si>
+  <si>
+    <t>RS35 2059 0310 0263 7397 40</t>
   </si>
   <si>
     <t>205-9001001626239-86</t>
-  </si>
-  <si>
-    <t>ANOEV OSIR</t>
-  </si>
-  <si>
-    <t>ULICAA,BEOGRAD</t>
-  </si>
-  <si>
-    <t>SERBIA</t>
-  </si>
-  <si>
-    <t>KOAR TGR</t>
-  </si>
-  <si>
-    <t>Beograd</t>
-  </si>
-  <si>
-    <t>Enil ČIĆVI</t>
-  </si>
-  <si>
-    <t>205-9001015647000-10</t>
-  </si>
-  <si>
-    <t>RS35 2059 0310 0988 6201 58</t>
-  </si>
-  <si>
-    <t>205-9001010537788-94</t>
-  </si>
-  <si>
-    <t>RS35 2059 0310 0890 1983 32</t>
-  </si>
-  <si>
-    <t>205-9032030694661-90</t>
-  </si>
-  <si>
-    <t>Vklaragan OVIT</t>
-  </si>
-  <si>
-    <t>205-9001004906720-69</t>
-  </si>
-  <si>
-    <t>RS35 2059 0310 0233 1565 13</t>
-  </si>
-  <si>
-    <t>205-9031002331565-13</t>
-  </si>
-  <si>
-    <t>205-9031002328491-20</t>
-  </si>
-  <si>
-    <t>RS35 2059 0310 0232 8491 20</t>
-  </si>
-  <si>
-    <t>Drre ĆEVMI</t>
-  </si>
-  <si>
-    <t>RS35 2059 0310 0263 7397 40</t>
   </si>
   <si>
     <t>Jail ĆEVGIMILĆ</t>
@@ -1523,11 +1520,11 @@
   <dimension ref="A1:AL7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AG2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="X1" sqref="X1"/>
+      <selection pane="bottomRight" activeCell="AL2" sqref="AL2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6"/>
@@ -1779,7 +1776,7 @@
       <c r="AE2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AF2" s="12" t="s">
+      <c r="AF2" s="2" t="s">
         <v>59</v>
       </c>
       <c r="AG2" s="2">
@@ -1795,15 +1792,15 @@
         <v>62</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:28">
       <c r="A3" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>40</v>
@@ -1815,16 +1812,16 @@
         <v>39</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>40</v>
@@ -1836,7 +1833,7 @@
         <v>40</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>40</v>
@@ -1872,7 +1869,7 @@
         <v>54</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Y3" s="2" t="s">
         <v>40</v>
@@ -1889,7 +1886,7 @@
     </row>
     <row r="4" s="3" customFormat="1" spans="1:28">
       <c r="A4" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>40</v>
@@ -1901,28 +1898,28 @@
         <v>42</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>39</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>39</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>40</v>
@@ -1975,7 +1972,7 @@
     </row>
     <row r="5" s="2" customFormat="1" ht="15" customHeight="1" spans="1:28">
       <c r="A5" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>40</v>
@@ -1990,13 +1987,13 @@
         <v>40</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>40</v>
@@ -2061,7 +2058,7 @@
     </row>
     <row r="6" s="3" customFormat="1" spans="1:28">
       <c r="A6" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>40</v>
@@ -2073,7 +2070,7 @@
         <v>42</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>40</v>
@@ -2085,69 +2082,69 @@
         <v>40</v>
       </c>
       <c r="I6" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="M6" s="2" t="s">
+      <c r="N6" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="O6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA6" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="O6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="W6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="X6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA6" s="11" t="s">
+      <c r="AB6" s="13" t="s">
         <v>84</v>
-      </c>
-      <c r="AB6" s="13" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="1" spans="1:28">
       <c r="A7" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>40</v>
@@ -2159,7 +2156,7 @@
         <v>42</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>40</v>
@@ -2171,7 +2168,7 @@
         <v>40</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>40</v>
